--- a/additional_files/MES_PC2_with_FPKM_values.xlsx
+++ b/additional_files/MES_PC2_with_FPKM_values.xlsx
@@ -522,6436 +522,6436 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ENSMUSG00000002633</t>
+          <t>ENSMUSG00000028364</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Shh</t>
+          <t>Tnc</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>chr5:28456814-28467256</t>
+          <t>chr4:63959784-64047015</t>
         </is>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>3.9912</v>
       </c>
       <c r="E3">
-        <v>0.0173717</v>
+        <v>3.03305</v>
       </c>
       <c r="F3">
-        <v>0.686881</v>
+        <v>0.210224</v>
       </c>
       <c r="G3">
-        <v>0.275332</v>
+        <v>0.236484</v>
       </c>
       <c r="H3">
-        <v>0.359514</v>
+        <v>1.43568</v>
       </c>
       <c r="I3">
-        <v>0.781389</v>
+        <v>0.267132</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>4.09103</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.747363</v>
       </c>
       <c r="L3">
-        <v>0.203539</v>
+        <v>4.84397</v>
       </c>
       <c r="M3">
-        <v>0.158722</v>
+        <v>4.2408</v>
       </c>
       <c r="N3">
-        <v>13.1639</v>
+        <v>0.293224</v>
       </c>
       <c r="O3">
-        <v>15.3855</v>
+        <v>0.550343</v>
       </c>
       <c r="P3">
-        <v>0.530836</v>
+        <v>0.94975</v>
       </c>
       <c r="Q3">
-        <v>5.0905</v>
+        <v>0.806133</v>
       </c>
       <c r="R3">
-        <v>0.0128558</v>
+        <v>29.0142</v>
       </c>
       <c r="S3">
-        <v>0.0610376</v>
+        <v>5.47723</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ENSMUSG00000024521</t>
+          <t>ENSMUSG00000078249</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pmaip1</t>
+          <t>Hmga1b</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>chr18:66458603-66465550</t>
+          <t>chr11:120762793-120764419</t>
         </is>
       </c>
       <c r="D4">
-        <v>4.50354</v>
+        <v>49.7301</v>
       </c>
       <c r="E4">
-        <v>3.25229</v>
+        <v>18.9495</v>
       </c>
       <c r="F4">
-        <v>6.25561</v>
+        <v>29.3796</v>
       </c>
       <c r="G4">
-        <v>13.2253</v>
+        <v>0.275477</v>
       </c>
       <c r="H4">
-        <v>29.1052</v>
+        <v>27.9142</v>
       </c>
       <c r="I4">
-        <v>9.981170000000001</v>
+        <v>0.245566</v>
       </c>
       <c r="J4">
-        <v>6.02153</v>
+        <v>36.1647</v>
       </c>
       <c r="K4">
-        <v>5.3341</v>
+        <v>36.2486</v>
       </c>
       <c r="L4">
-        <v>0.205313</v>
+        <v>64.8837</v>
       </c>
       <c r="M4">
-        <v>0.132828</v>
+        <v>22.2637</v>
       </c>
       <c r="N4">
-        <v>42.2897</v>
+        <v>24.8472</v>
       </c>
       <c r="O4">
-        <v>106.368</v>
+        <v>0.260458</v>
       </c>
       <c r="P4">
-        <v>60.4551</v>
+        <v>18.6844</v>
       </c>
       <c r="Q4">
-        <v>119.805</v>
+        <v>0.150431</v>
       </c>
       <c r="R4">
-        <v>15.9764</v>
+        <v>13.9334</v>
       </c>
       <c r="S4">
-        <v>47.1979</v>
+        <v>20.1276</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ENSMUSG00000027004</t>
+          <t>ENSMUSG00000060969</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Frzb</t>
+          <t>Irx1</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>chr2:80411969-80447625</t>
+          <t>chr13:71957920-71963723</t>
         </is>
       </c>
       <c r="D5">
-        <v>10.2984</v>
+        <v>0.753266</v>
       </c>
       <c r="E5">
-        <v>6.47075</v>
+        <v>0.626818</v>
       </c>
       <c r="F5">
-        <v>12.1096</v>
+        <v>0.976591</v>
       </c>
       <c r="G5">
-        <v>14.5089</v>
+        <v>2.22655</v>
       </c>
       <c r="H5">
-        <v>3.53055</v>
+        <v>1.71458</v>
       </c>
       <c r="I5">
-        <v>7.0464</v>
+        <v>1.01639</v>
       </c>
       <c r="J5">
-        <v>0.5295029999999999</v>
+        <v>2.05764</v>
       </c>
       <c r="K5">
-        <v>1.09363</v>
+        <v>2.44046</v>
       </c>
       <c r="L5">
-        <v>13.8704</v>
+        <v>2.51474</v>
       </c>
       <c r="M5">
-        <v>9.757999999999999</v>
+        <v>1.46236</v>
       </c>
       <c r="N5">
-        <v>56.8912</v>
+        <v>0.0527798</v>
       </c>
       <c r="O5">
-        <v>55.2172</v>
+        <v>0.0737811</v>
       </c>
       <c r="P5">
-        <v>17.9788</v>
+        <v>3.37315</v>
       </c>
       <c r="Q5">
-        <v>39.1098</v>
+        <v>0.271939</v>
       </c>
       <c r="R5">
-        <v>1.25527</v>
+        <v>10.1959</v>
       </c>
       <c r="S5">
-        <v>4.7826</v>
+        <v>7.61013</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ENSMUSG00000071553</t>
+          <t>ENSMUSG00000030849</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cpa2</t>
+          <t>Fgfr2</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>chr6:30541581-30564476</t>
+          <t>chr7:130162450-130266263</t>
         </is>
       </c>
       <c r="D6">
-        <v>8.830579999999999</v>
+        <v>54.5363</v>
       </c>
       <c r="E6">
-        <v>7.44709</v>
+        <v>63.9771</v>
       </c>
       <c r="F6">
-        <v>10.4158</v>
+        <v>56.019</v>
       </c>
       <c r="G6">
-        <v>17.7896</v>
+        <v>66.1067</v>
       </c>
       <c r="H6">
-        <v>21.6902</v>
+        <v>42.2711</v>
       </c>
       <c r="I6">
-        <v>7.64387</v>
+        <v>72.01990000000001</v>
       </c>
       <c r="J6">
-        <v>2.26912</v>
+        <v>88.9766</v>
       </c>
       <c r="K6">
-        <v>2.31844</v>
+        <v>99.6872</v>
       </c>
       <c r="L6">
-        <v>53.23</v>
+        <v>11.66</v>
       </c>
       <c r="M6">
-        <v>41.5274</v>
+        <v>18.3629</v>
       </c>
       <c r="N6">
-        <v>175.457</v>
+        <v>1.49265</v>
       </c>
       <c r="O6">
-        <v>186.776</v>
+        <v>1.81595</v>
       </c>
       <c r="P6">
-        <v>30.1242</v>
+        <v>9.10051</v>
       </c>
       <c r="Q6">
-        <v>93.1354</v>
+        <v>4.87228</v>
       </c>
       <c r="R6">
-        <v>6.85598</v>
+        <v>17.6447</v>
       </c>
       <c r="S6">
-        <v>12.8536</v>
+        <v>20.1806</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ENSMUSG00000028364</t>
+          <t>ENSMUSG00000070720</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Tnc</t>
+          <t>Tmem200b</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>chr4:63959784-64047015</t>
+          <t>chr4:131921770-131923140</t>
         </is>
       </c>
       <c r="D7">
-        <v>3.9912</v>
+        <v>2.9822</v>
       </c>
       <c r="E7">
-        <v>3.03305</v>
+        <v>2.31041</v>
       </c>
       <c r="F7">
-        <v>0.210224</v>
+        <v>0.0509789</v>
       </c>
       <c r="G7">
-        <v>0.236484</v>
+        <v>0.204346</v>
       </c>
       <c r="H7">
-        <v>1.43568</v>
+        <v>0.309147</v>
       </c>
       <c r="I7">
-        <v>0.267132</v>
+        <v>0.0832721</v>
       </c>
       <c r="J7">
-        <v>4.09103</v>
+        <v>0.946621</v>
       </c>
       <c r="K7">
-        <v>0.747363</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>4.84397</v>
+        <v>12.0019</v>
       </c>
       <c r="M7">
-        <v>4.2408</v>
+        <v>8.17272</v>
       </c>
       <c r="N7">
-        <v>0.293224</v>
+        <v>1.29289</v>
       </c>
       <c r="O7">
-        <v>0.550343</v>
+        <v>0.706577</v>
       </c>
       <c r="P7">
-        <v>0.94975</v>
+        <v>0.650564</v>
       </c>
       <c r="Q7">
-        <v>0.806133</v>
+        <v>0.535624</v>
       </c>
       <c r="R7">
-        <v>29.0142</v>
+        <v>17.3384</v>
       </c>
       <c r="S7">
-        <v>5.47723</v>
+        <v>1.81807</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ENSMUSG00000031654</t>
+          <t>ENSMUSG00000041120</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Cbln1</t>
+          <t>Nbl1</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>chr8:87468404-87472609</t>
+          <t>chr4:139082283-139092993</t>
         </is>
       </c>
       <c r="D8">
-        <v>0.400786</v>
+        <v>1.09185</v>
       </c>
       <c r="E8">
-        <v>0.0353266</v>
+        <v>0.7447549999999999</v>
       </c>
       <c r="F8">
-        <v>4.24799</v>
+        <v>1.09066</v>
       </c>
       <c r="G8">
-        <v>4.07584</v>
+        <v>0.281046</v>
       </c>
       <c r="H8">
-        <v>4.72716</v>
+        <v>10.7281</v>
       </c>
       <c r="I8">
-        <v>6.11979</v>
+        <v>2.32238</v>
       </c>
       <c r="J8">
-        <v>0.675782</v>
+        <v>10.9734</v>
       </c>
       <c r="K8">
-        <v>0.677748</v>
+        <v>4.31372</v>
       </c>
       <c r="L8">
-        <v>0.631161</v>
+        <v>5.19121</v>
       </c>
       <c r="M8">
-        <v>0.598139</v>
+        <v>4.17242</v>
       </c>
       <c r="N8">
-        <v>26.8589</v>
+        <v>1.85031</v>
       </c>
       <c r="O8">
-        <v>32.2917</v>
+        <v>0.776082</v>
       </c>
       <c r="P8">
-        <v>23.6376</v>
+        <v>17.0522</v>
       </c>
       <c r="Q8">
-        <v>28.1916</v>
+        <v>6.10481</v>
       </c>
       <c r="R8">
-        <v>5.23102</v>
+        <v>37.0903</v>
       </c>
       <c r="S8">
-        <v>11.7938</v>
+        <v>17.316</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ENSMUSG00000001823</t>
+          <t>ENSMUSG00000000567</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Hoxd12</t>
+          <t>Sox9</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>chr2:74675012-74677705</t>
+          <t>chr11:112782223-112787760</t>
         </is>
       </c>
       <c r="D9">
-        <v>0.13436</v>
+        <v>13.2976</v>
       </c>
       <c r="E9">
-        <v>0.0195175</v>
+        <v>11.853</v>
       </c>
       <c r="F9">
-        <v>6.58722</v>
+        <v>6.11426</v>
       </c>
       <c r="G9">
-        <v>6.42987</v>
+        <v>5.01005</v>
       </c>
       <c r="H9">
-        <v>53.5126</v>
+        <v>3.10693</v>
       </c>
       <c r="I9">
-        <v>5.42501</v>
+        <v>5.58688</v>
       </c>
       <c r="J9">
-        <v>2.3396</v>
+        <v>4.77617</v>
       </c>
       <c r="K9">
-        <v>2.51758</v>
+        <v>5.06535</v>
       </c>
       <c r="L9">
-        <v>0.100048</v>
+        <v>6.10482</v>
       </c>
       <c r="M9">
-        <v>0.118885</v>
+        <v>5.93766</v>
       </c>
       <c r="N9">
-        <v>99.5018</v>
+        <v>4.0796</v>
       </c>
       <c r="O9">
-        <v>116.608</v>
+        <v>2.69217</v>
       </c>
       <c r="P9">
-        <v>198.664</v>
+        <v>25.7715</v>
       </c>
       <c r="Q9">
-        <v>158.933</v>
+        <v>11.8752</v>
       </c>
       <c r="R9">
-        <v>84.2936</v>
+        <v>76.58199999999999</v>
       </c>
       <c r="S9">
-        <v>148.835</v>
+        <v>57.8966</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ENSMUSG00000027276</t>
+          <t>ENSMUSG00000032327</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Jag1</t>
+          <t>Stra6</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>chr2:137081455-137116644</t>
+          <t>chr9:58079309-58153996</t>
         </is>
       </c>
       <c r="D10">
-        <v>4.32258</v>
+        <v>7.50477</v>
       </c>
       <c r="E10">
-        <v>5.46391</v>
+        <v>7.66706</v>
       </c>
       <c r="F10">
-        <v>9.296379999999999</v>
+        <v>9.39728</v>
       </c>
       <c r="G10">
-        <v>17.1005</v>
+        <v>4.04896</v>
       </c>
       <c r="H10">
-        <v>8.307880000000001</v>
+        <v>5.19072</v>
       </c>
       <c r="I10">
-        <v>14.0977</v>
+        <v>4.78172</v>
       </c>
       <c r="J10">
-        <v>10.5905</v>
+        <v>1.85024</v>
       </c>
       <c r="K10">
-        <v>15.0798</v>
+        <v>1.67679</v>
       </c>
       <c r="L10">
-        <v>1.181</v>
+        <v>24.729</v>
       </c>
       <c r="M10">
-        <v>1.30622</v>
+        <v>21.2845</v>
       </c>
       <c r="N10">
-        <v>19.1576</v>
+        <v>5.89721</v>
       </c>
       <c r="O10">
-        <v>31.7596</v>
+        <v>2.80409</v>
       </c>
       <c r="P10">
-        <v>10.8616</v>
+        <v>14.752</v>
       </c>
       <c r="Q10">
-        <v>26.816</v>
+        <v>5.93711</v>
       </c>
       <c r="R10">
-        <v>3.53482</v>
+        <v>31.562</v>
       </c>
       <c r="S10">
-        <v>9.65067</v>
+        <v>20.3698</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ENSMUSG00000057777</t>
+          <t>ENSMUSG00000020218</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Mab21l2</t>
+          <t>Wif1</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>chr3:86545580-86548283</t>
+          <t>chr10:121033959-121100650</t>
         </is>
       </c>
       <c r="D11">
-        <v>1.543</v>
+        <v>1.85522</v>
       </c>
       <c r="E11">
-        <v>0.786778</v>
+        <v>0.905497</v>
       </c>
       <c r="F11">
-        <v>6.64046</v>
+        <v>10.5949</v>
       </c>
       <c r="G11">
-        <v>3.64571</v>
+        <v>9.51891</v>
       </c>
       <c r="H11">
-        <v>3.408</v>
+        <v>17.001</v>
       </c>
       <c r="I11">
-        <v>2.63787</v>
+        <v>4.62498</v>
       </c>
       <c r="J11">
-        <v>0.205624</v>
+        <v>10.4954</v>
       </c>
       <c r="K11">
-        <v>0.731027</v>
+        <v>3.18344</v>
       </c>
       <c r="L11">
-        <v>2.14383</v>
+        <v>6.36249</v>
       </c>
       <c r="M11">
-        <v>1.70893</v>
+        <v>6.10656</v>
       </c>
       <c r="N11">
-        <v>55.3568</v>
+        <v>4.38765</v>
       </c>
       <c r="O11">
-        <v>36.2601</v>
+        <v>4.89584</v>
       </c>
       <c r="P11">
-        <v>21.3037</v>
+        <v>26.2169</v>
       </c>
       <c r="Q11">
-        <v>32.3737</v>
+        <v>12.1022</v>
       </c>
       <c r="R11">
-        <v>9.627409999999999</v>
+        <v>125.781</v>
       </c>
       <c r="S11">
-        <v>12.0221</v>
+        <v>42.5976</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ENSMUSG00000078249</t>
+          <t>ENSMUSG00000017491</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Hmga1b</t>
+          <t>Rarb</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>chr11:120762793-120764419</t>
+          <t>chr14:16430838-16819156</t>
         </is>
       </c>
       <c r="D12">
-        <v>49.7301</v>
+        <v>3.63445</v>
       </c>
       <c r="E12">
-        <v>18.9495</v>
+        <v>3.7077</v>
       </c>
       <c r="F12">
-        <v>29.3796</v>
+        <v>0.359542</v>
       </c>
       <c r="G12">
-        <v>0.275477</v>
+        <v>0.21618</v>
       </c>
       <c r="H12">
-        <v>27.9142</v>
+        <v>0.169329</v>
       </c>
       <c r="I12">
-        <v>0.245566</v>
+        <v>0.248143</v>
       </c>
       <c r="J12">
-        <v>36.1647</v>
+        <v>0.24467</v>
       </c>
       <c r="K12">
-        <v>36.2486</v>
+        <v>0.326967</v>
       </c>
       <c r="L12">
-        <v>64.8837</v>
+        <v>16.4306</v>
       </c>
       <c r="M12">
-        <v>22.2637</v>
+        <v>15.8205</v>
       </c>
       <c r="N12">
-        <v>24.8472</v>
+        <v>0.0995099</v>
       </c>
       <c r="O12">
-        <v>0.260458</v>
+        <v>0.179997</v>
       </c>
       <c r="P12">
-        <v>18.6844</v>
+        <v>0.2743</v>
       </c>
       <c r="Q12">
-        <v>0.150431</v>
+        <v>0.3464</v>
       </c>
       <c r="R12">
-        <v>13.9334</v>
+        <v>2.34596</v>
       </c>
       <c r="S12">
-        <v>20.1276</v>
+        <v>0.916388</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ENSMUSG00000032394</t>
+          <t>ENSMUSG00000074971</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Igdcc3</t>
+          <t>Fibin</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>chr9:65141188-65185872</t>
+          <t>chr2:110360916-110363183</t>
         </is>
       </c>
       <c r="D13">
-        <v>138.67</v>
+        <v>0.300369</v>
       </c>
       <c r="E13">
-        <v>100.362</v>
+        <v>0.196345</v>
       </c>
       <c r="F13">
-        <v>89.9378</v>
+        <v>0.123231</v>
       </c>
       <c r="G13">
-        <v>51.3037</v>
+        <v>0.0246981</v>
       </c>
       <c r="H13">
-        <v>4.42878</v>
+        <v>0.0311375</v>
       </c>
       <c r="I13">
-        <v>13.4018</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0.680704</v>
+        <v>0.261515</v>
       </c>
       <c r="K13">
-        <v>1.88373</v>
+        <v>0.0249035</v>
       </c>
       <c r="L13">
-        <v>300.355</v>
+        <v>2.36443</v>
       </c>
       <c r="M13">
-        <v>294.417</v>
+        <v>1.37316</v>
       </c>
       <c r="N13">
-        <v>189.801</v>
+        <v>0.173627</v>
       </c>
       <c r="O13">
-        <v>91.221</v>
+        <v>0.0800626</v>
       </c>
       <c r="P13">
-        <v>1.98391</v>
+        <v>0.478619</v>
       </c>
       <c r="Q13">
-        <v>7.50832</v>
+        <v>0.350664</v>
       </c>
       <c r="R13">
-        <v>0.47699</v>
+        <v>10.252</v>
       </c>
       <c r="S13">
-        <v>0.530118</v>
+        <v>3.73048</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ENSMUSG00000027868</t>
+          <t>ENSMUSG00000022483</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Tbx15</t>
+          <t>Col2a1</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>chr3:99240380-99354259</t>
+          <t>chr15:97975601-98004695</t>
         </is>
       </c>
       <c r="D14">
-        <v>0.983657</v>
+        <v>219.981</v>
       </c>
       <c r="E14">
-        <v>0.540896</v>
+        <v>153.486</v>
       </c>
       <c r="F14">
-        <v>3.76041</v>
+        <v>275.876</v>
       </c>
       <c r="G14">
-        <v>3.92532</v>
+        <v>188.866</v>
       </c>
       <c r="H14">
-        <v>5.90881</v>
+        <v>106.49</v>
       </c>
       <c r="I14">
-        <v>1.79184</v>
+        <v>125.971</v>
       </c>
       <c r="J14">
-        <v>0.21882</v>
+        <v>69.6202</v>
       </c>
       <c r="K14">
-        <v>0.474954</v>
+        <v>74.3409</v>
       </c>
       <c r="L14">
-        <v>10.1463</v>
+        <v>7.25853</v>
       </c>
       <c r="M14">
-        <v>13.1084</v>
+        <v>5.22838</v>
       </c>
       <c r="N14">
-        <v>46.368</v>
+        <v>6.11344</v>
       </c>
       <c r="O14">
-        <v>59.3981</v>
+        <v>3.40198</v>
       </c>
       <c r="P14">
-        <v>21.4808</v>
+        <v>18.6357</v>
       </c>
       <c r="Q14">
-        <v>47.1362</v>
+        <v>7.67876</v>
       </c>
       <c r="R14">
-        <v>3.89055</v>
+        <v>82.74209999999999</v>
       </c>
       <c r="S14">
-        <v>17.5918</v>
+        <v>48.334</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ENSMUSG00000060969</t>
+          <t>ENSMUSG00000001911</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Irx1</t>
+          <t>Nfix</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>chr13:71957920-71963723</t>
+          <t>chr8:84704711-84800344</t>
         </is>
       </c>
       <c r="D15">
-        <v>0.753266</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>0.626818</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>0.976591</v>
+        <v>0.04767</v>
       </c>
       <c r="G15">
-        <v>2.22655</v>
+        <v>0.085129</v>
       </c>
       <c r="H15">
-        <v>1.71458</v>
+        <v>0.9402779999999999</v>
       </c>
       <c r="I15">
-        <v>1.01639</v>
+        <v>0.215404</v>
       </c>
       <c r="J15">
-        <v>2.05764</v>
+        <v>1.28673</v>
       </c>
       <c r="K15">
-        <v>2.44046</v>
+        <v>0.491571</v>
       </c>
       <c r="L15">
-        <v>2.51474</v>
+        <v>0.0503031</v>
       </c>
       <c r="M15">
-        <v>1.46236</v>
+        <v>0.0355956</v>
       </c>
       <c r="N15">
-        <v>0.0527798</v>
+        <v>0.282386</v>
       </c>
       <c r="O15">
-        <v>0.0737811</v>
+        <v>0.455266</v>
       </c>
       <c r="P15">
-        <v>3.37315</v>
+        <v>4.32397</v>
       </c>
       <c r="Q15">
-        <v>0.271939</v>
+        <v>1.57362</v>
       </c>
       <c r="R15">
-        <v>10.1959</v>
+        <v>32.954</v>
       </c>
       <c r="S15">
-        <v>7.61013</v>
+        <v>11.5577</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ENSMUSG00000030849</t>
+          <t>ENSMUSG00000059921</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Fgfr2</t>
+          <t>Unc5c</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>chr7:130162450-130266263</t>
+          <t>chr3:141465215-141834924</t>
         </is>
       </c>
       <c r="D16">
-        <v>54.5363</v>
+        <v>14.8278</v>
       </c>
       <c r="E16">
-        <v>63.9771</v>
+        <v>11.3323</v>
       </c>
       <c r="F16">
-        <v>56.019</v>
+        <v>11.5315</v>
       </c>
       <c r="G16">
-        <v>66.1067</v>
+        <v>11.672</v>
       </c>
       <c r="H16">
-        <v>42.2711</v>
+        <v>11.8652</v>
       </c>
       <c r="I16">
-        <v>72.01990000000001</v>
+        <v>12.4031</v>
       </c>
       <c r="J16">
-        <v>88.9766</v>
+        <v>10.1437</v>
       </c>
       <c r="K16">
-        <v>99.6872</v>
+        <v>8.56344</v>
       </c>
       <c r="L16">
-        <v>11.66</v>
+        <v>5.70894</v>
       </c>
       <c r="M16">
-        <v>18.3629</v>
+        <v>4.77096</v>
       </c>
       <c r="N16">
-        <v>1.49265</v>
+        <v>2.22801</v>
       </c>
       <c r="O16">
-        <v>1.81595</v>
+        <v>2.47542</v>
       </c>
       <c r="P16">
-        <v>9.10051</v>
+        <v>10.622</v>
       </c>
       <c r="Q16">
-        <v>4.87228</v>
+        <v>6.42786</v>
       </c>
       <c r="R16">
-        <v>17.6447</v>
+        <v>40.2552</v>
       </c>
       <c r="S16">
-        <v>20.1806</v>
+        <v>19.6289</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ENSMUSG00000070720</t>
+          <t>ENSMUSG00000027570</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Tmem200b</t>
+          <t>Col9a3</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>chr4:131921770-131923140</t>
+          <t>chr2:180597789-180622189</t>
         </is>
       </c>
       <c r="D17">
-        <v>2.9822</v>
+        <v>4.15715</v>
       </c>
       <c r="E17">
-        <v>2.31041</v>
+        <v>2.8152</v>
       </c>
       <c r="F17">
-        <v>0.0509789</v>
+        <v>1.98774</v>
       </c>
       <c r="G17">
-        <v>0.204346</v>
+        <v>1.73126</v>
       </c>
       <c r="H17">
-        <v>0.309147</v>
+        <v>3.18715</v>
       </c>
       <c r="I17">
-        <v>0.0832721</v>
+        <v>2.64563</v>
       </c>
       <c r="J17">
-        <v>0.946621</v>
+        <v>3.46318</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>3.23343</v>
       </c>
       <c r="L17">
-        <v>12.0019</v>
+        <v>0.152705</v>
       </c>
       <c r="M17">
-        <v>8.17272</v>
+        <v>0.158774</v>
       </c>
       <c r="N17">
-        <v>1.29289</v>
+        <v>0.434668</v>
       </c>
       <c r="O17">
-        <v>0.706577</v>
+        <v>0.5739649999999999</v>
       </c>
       <c r="P17">
-        <v>0.650564</v>
+        <v>5.85486</v>
       </c>
       <c r="Q17">
-        <v>0.535624</v>
+        <v>1.82634</v>
       </c>
       <c r="R17">
-        <v>17.3384</v>
+        <v>25.1161</v>
       </c>
       <c r="S17">
-        <v>1.81807</v>
+        <v>19.7628</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ENSMUSG00000041120</t>
+          <t>ENSMUSG00000053007</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Nbl1</t>
+          <t>Creb5</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>chr4:139082283-139092993</t>
+          <t>chr6:53287269-53700376</t>
         </is>
       </c>
       <c r="D18">
-        <v>1.09185</v>
+        <v>0.0365286</v>
       </c>
       <c r="E18">
-        <v>0.7447549999999999</v>
+        <v>0.0462703</v>
       </c>
       <c r="F18">
-        <v>1.09066</v>
+        <v>0.19293</v>
       </c>
       <c r="G18">
-        <v>0.281046</v>
+        <v>0.188032</v>
       </c>
       <c r="H18">
-        <v>10.7281</v>
+        <v>0.0518895</v>
       </c>
       <c r="I18">
-        <v>2.32238</v>
+        <v>0.0304943</v>
       </c>
       <c r="J18">
-        <v>10.9734</v>
+        <v>0.23237</v>
       </c>
       <c r="K18">
-        <v>4.31372</v>
+        <v>0.256285</v>
       </c>
       <c r="L18">
-        <v>5.19121</v>
+        <v>0.277958</v>
       </c>
       <c r="M18">
-        <v>4.17242</v>
+        <v>0.285648</v>
       </c>
       <c r="N18">
-        <v>1.85031</v>
+        <v>0.0980152</v>
       </c>
       <c r="O18">
-        <v>0.776082</v>
+        <v>0.0749464</v>
       </c>
       <c r="P18">
-        <v>17.0522</v>
+        <v>2.17312</v>
       </c>
       <c r="Q18">
-        <v>6.10481</v>
+        <v>0.6488120000000001</v>
       </c>
       <c r="R18">
-        <v>37.0903</v>
+        <v>8.88937</v>
       </c>
       <c r="S18">
-        <v>17.316</v>
+        <v>11.7482</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ENSMUSG00000005503</t>
+          <t>ENSMUSG00000022636</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Evx1</t>
+          <t>Alcam</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>chr6:52313497-52318378</t>
+          <t>chr16:52248995-52454074</t>
         </is>
       </c>
       <c r="D19">
-        <v>0.0295853</v>
+        <v>6.78006</v>
       </c>
       <c r="E19">
-        <v>0.0515726</v>
+        <v>5.68702</v>
       </c>
       <c r="F19">
-        <v>2.18485</v>
+        <v>11.2733</v>
       </c>
       <c r="G19">
-        <v>2.7674</v>
+        <v>16.526</v>
       </c>
       <c r="H19">
-        <v>7.41521</v>
+        <v>35.1858</v>
       </c>
       <c r="I19">
-        <v>0.951685</v>
+        <v>27.9093</v>
       </c>
       <c r="J19">
-        <v>0.675785</v>
+        <v>70.55589999999999</v>
       </c>
       <c r="K19">
-        <v>0.726063</v>
+        <v>71.02500000000001</v>
       </c>
       <c r="L19">
-        <v>0.17624</v>
+        <v>10.5444</v>
       </c>
       <c r="M19">
-        <v>0.219982</v>
+        <v>17.8413</v>
       </c>
       <c r="N19">
-        <v>23.419</v>
+        <v>1.10611</v>
       </c>
       <c r="O19">
-        <v>20.3562</v>
+        <v>1.58136</v>
       </c>
       <c r="P19">
-        <v>13.5475</v>
+        <v>7.659</v>
       </c>
       <c r="Q19">
-        <v>17.3058</v>
+        <v>4.58924</v>
       </c>
       <c r="R19">
-        <v>8.805400000000001</v>
+        <v>5.94068</v>
       </c>
       <c r="S19">
-        <v>7.00976</v>
+        <v>12.5676</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ENSMUSG00000000567</t>
+          <t>ENSMUSG00000018217</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Sox9</t>
+          <t>Pmp22</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>chr11:112782223-112787760</t>
+          <t>chr11:63128981-63159547</t>
         </is>
       </c>
       <c r="D20">
-        <v>13.2976</v>
+        <v>6.20768</v>
       </c>
       <c r="E20">
-        <v>11.853</v>
+        <v>6.88473</v>
       </c>
       <c r="F20">
-        <v>6.11426</v>
+        <v>0.0775875</v>
       </c>
       <c r="G20">
-        <v>5.01005</v>
+        <v>0.794677</v>
       </c>
       <c r="H20">
-        <v>3.10693</v>
+        <v>1.00985</v>
       </c>
       <c r="I20">
-        <v>5.58688</v>
+        <v>0.190126</v>
       </c>
       <c r="J20">
-        <v>4.77617</v>
+        <v>0.360562</v>
       </c>
       <c r="K20">
-        <v>5.06535</v>
+        <v>0.43909</v>
       </c>
       <c r="L20">
-        <v>6.10482</v>
+        <v>5.21764</v>
       </c>
       <c r="M20">
-        <v>5.93766</v>
+        <v>6.09388</v>
       </c>
       <c r="N20">
-        <v>4.0796</v>
+        <v>1.60591</v>
       </c>
       <c r="O20">
-        <v>2.69217</v>
+        <v>1.88653</v>
       </c>
       <c r="P20">
-        <v>25.7715</v>
+        <v>8.68492</v>
       </c>
       <c r="Q20">
-        <v>11.8752</v>
+        <v>4.63715</v>
       </c>
       <c r="R20">
-        <v>76.58199999999999</v>
+        <v>18.0348</v>
       </c>
       <c r="S20">
-        <v>57.8966</v>
+        <v>13.7036</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ENSMUSG00000045636</t>
+          <t>ENSMUSG00000031734</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Mtus1</t>
+          <t>Irx3</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>chr8:40990913-41133726</t>
+          <t>chr8:91798524-91802067</t>
         </is>
       </c>
       <c r="D21">
-        <v>5.68991</v>
+        <v>7.73396</v>
       </c>
       <c r="E21">
-        <v>4.55435</v>
+        <v>6.3474</v>
       </c>
       <c r="F21">
-        <v>9.28781</v>
+        <v>2.19513</v>
       </c>
       <c r="G21">
-        <v>12.6474</v>
+        <v>1.15843</v>
       </c>
       <c r="H21">
-        <v>11.453</v>
+        <v>1.50632</v>
       </c>
       <c r="I21">
-        <v>16.2044</v>
+        <v>1.49326</v>
       </c>
       <c r="J21">
-        <v>11.1706</v>
+        <v>3.02461</v>
       </c>
       <c r="K21">
-        <v>17.1813</v>
+        <v>2.05834</v>
       </c>
       <c r="L21">
-        <v>0.716507</v>
+        <v>25.8736</v>
       </c>
       <c r="M21">
-        <v>0.564142</v>
+        <v>21.8981</v>
       </c>
       <c r="N21">
-        <v>10.3215</v>
+        <v>0.219328</v>
       </c>
       <c r="O21">
-        <v>10.0518</v>
+        <v>0.0695395</v>
       </c>
       <c r="P21">
-        <v>2.67215</v>
+        <v>0.0890816</v>
       </c>
       <c r="Q21">
-        <v>6.75541</v>
+        <v>0.0702863</v>
       </c>
       <c r="R21">
-        <v>1.28891</v>
+        <v>0.327747</v>
       </c>
       <c r="S21">
-        <v>1.31723</v>
+        <v>0.177546</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ENSMUSG00000032327</t>
+          <t>ENSMUSG00000025921</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Stra6</t>
+          <t>Rdh10</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>chr9:58079309-58153996</t>
+          <t>chr1:16105773-16133734</t>
         </is>
       </c>
       <c r="D22">
-        <v>7.50477</v>
+        <v>7.11879</v>
       </c>
       <c r="E22">
-        <v>7.66706</v>
+        <v>7.05941</v>
       </c>
       <c r="F22">
-        <v>9.39728</v>
+        <v>6.25006</v>
       </c>
       <c r="G22">
-        <v>4.04896</v>
+        <v>6.5247</v>
       </c>
       <c r="H22">
-        <v>5.19072</v>
+        <v>4.31955</v>
       </c>
       <c r="I22">
-        <v>4.78172</v>
+        <v>6.88568</v>
       </c>
       <c r="J22">
-        <v>1.85024</v>
+        <v>3.46052</v>
       </c>
       <c r="K22">
-        <v>1.67679</v>
+        <v>5.83921</v>
       </c>
       <c r="L22">
-        <v>24.729</v>
+        <v>9.1578</v>
       </c>
       <c r="M22">
-        <v>21.2845</v>
+        <v>10.7221</v>
       </c>
       <c r="N22">
-        <v>5.89721</v>
+        <v>0.9876</v>
       </c>
       <c r="O22">
-        <v>2.80409</v>
+        <v>1.90593</v>
       </c>
       <c r="P22">
-        <v>14.752</v>
+        <v>2.44152</v>
       </c>
       <c r="Q22">
-        <v>5.93711</v>
+        <v>3.03451</v>
       </c>
       <c r="R22">
-        <v>31.562</v>
+        <v>10.275</v>
       </c>
       <c r="S22">
-        <v>20.3698</v>
+        <v>5.18367</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ENSMUSG00000038210</t>
+          <t>ENSMUSG00000000120</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Hoxa11</t>
+          <t>Ngfr</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>chr6:52242105-52245810</t>
+          <t>chr11:95568817-95587735</t>
         </is>
       </c>
       <c r="D23">
-        <v>0.595484</v>
+        <v>37.5196</v>
       </c>
       <c r="E23">
-        <v>0.670387</v>
+        <v>35.5644</v>
       </c>
       <c r="F23">
-        <v>8.15372</v>
+        <v>11.0457</v>
       </c>
       <c r="G23">
-        <v>5.94916</v>
+        <v>6.20675</v>
       </c>
       <c r="H23">
-        <v>2.39205</v>
+        <v>24.7859</v>
       </c>
       <c r="I23">
-        <v>1.59626</v>
+        <v>4.5355</v>
       </c>
       <c r="J23">
-        <v>0.226825</v>
+        <v>3.82792</v>
       </c>
       <c r="K23">
-        <v>0.0987427</v>
+        <v>2.17895</v>
       </c>
       <c r="L23">
-        <v>17.198</v>
+        <v>16.2063</v>
       </c>
       <c r="M23">
-        <v>11.3722</v>
+        <v>15.5902</v>
       </c>
       <c r="N23">
-        <v>71.2531</v>
+        <v>3.61435</v>
       </c>
       <c r="O23">
-        <v>41.242</v>
+        <v>7.14561</v>
       </c>
       <c r="P23">
-        <v>8.40424</v>
+        <v>36.1983</v>
       </c>
       <c r="Q23">
-        <v>18.182</v>
+        <v>23.2819</v>
       </c>
       <c r="R23">
-        <v>4.8171</v>
+        <v>45.3841</v>
       </c>
       <c r="S23">
-        <v>6.35728</v>
+        <v>32.6772</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>ENSMUSG00000020218</t>
+          <t>ENSMUSG00000031548</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Wif1</t>
+          <t>Sfrp1</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>chr10:121033959-121100650</t>
+          <t>chr8:23411501-23449632</t>
         </is>
       </c>
       <c r="D24">
-        <v>1.85522</v>
+        <v>15.4386</v>
       </c>
       <c r="E24">
-        <v>0.905497</v>
+        <v>11.448</v>
       </c>
       <c r="F24">
-        <v>10.5949</v>
+        <v>4.93616</v>
       </c>
       <c r="G24">
-        <v>9.51891</v>
+        <v>3.90603</v>
       </c>
       <c r="H24">
-        <v>17.001</v>
+        <v>2.15544</v>
       </c>
       <c r="I24">
-        <v>4.62498</v>
+        <v>3.26174</v>
       </c>
       <c r="J24">
-        <v>10.4954</v>
+        <v>3.8223</v>
       </c>
       <c r="K24">
-        <v>3.18344</v>
+        <v>4.54542</v>
       </c>
       <c r="L24">
-        <v>6.36249</v>
+        <v>22.1843</v>
       </c>
       <c r="M24">
-        <v>6.10656</v>
+        <v>19.0179</v>
       </c>
       <c r="N24">
-        <v>4.38765</v>
+        <v>1.96138</v>
       </c>
       <c r="O24">
-        <v>4.89584</v>
+        <v>1.75745</v>
       </c>
       <c r="P24">
-        <v>26.2169</v>
+        <v>2.61472</v>
       </c>
       <c r="Q24">
-        <v>12.1022</v>
+        <v>2.43371</v>
       </c>
       <c r="R24">
-        <v>125.781</v>
+        <v>6.40423</v>
       </c>
       <c r="S24">
-        <v>42.5976</v>
+        <v>3.73622</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ENSMUSG00000017491</t>
+          <t>ENSMUSG00000048332</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Rarb</t>
+          <t>Lhfp</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>chr14:16430838-16819156</t>
+          <t>chr3:53041527-53261679</t>
         </is>
       </c>
       <c r="D25">
-        <v>3.63445</v>
+        <v>2.4227</v>
       </c>
       <c r="E25">
-        <v>3.7077</v>
+        <v>2.47175</v>
       </c>
       <c r="F25">
-        <v>0.359542</v>
+        <v>1.47545</v>
       </c>
       <c r="G25">
-        <v>0.21618</v>
+        <v>2.15314</v>
       </c>
       <c r="H25">
-        <v>0.169329</v>
+        <v>5.82658</v>
       </c>
       <c r="I25">
-        <v>0.248143</v>
+        <v>3.64868</v>
       </c>
       <c r="J25">
-        <v>0.24467</v>
+        <v>4.95692</v>
       </c>
       <c r="K25">
-        <v>0.326967</v>
+        <v>3.95388</v>
       </c>
       <c r="L25">
-        <v>16.4306</v>
+        <v>9.72593</v>
       </c>
       <c r="M25">
-        <v>15.8205</v>
+        <v>8.717930000000001</v>
       </c>
       <c r="N25">
-        <v>0.0995099</v>
+        <v>2.49457</v>
       </c>
       <c r="O25">
-        <v>0.179997</v>
+        <v>3.33396</v>
       </c>
       <c r="P25">
-        <v>0.2743</v>
+        <v>6.12149</v>
       </c>
       <c r="Q25">
-        <v>0.3464</v>
+        <v>5.67529</v>
       </c>
       <c r="R25">
-        <v>2.34596</v>
+        <v>22.2937</v>
       </c>
       <c r="S25">
-        <v>0.916388</v>
+        <v>13.1425</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ENSMUSG00000063415</t>
+          <t>ENSMUSG00000028626</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Cyp26b1</t>
+          <t>Col9a2</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>chr6:84571413-84593908</t>
+          <t>chr4:121039384-121055322</t>
         </is>
       </c>
       <c r="D26">
-        <v>79.20910000000001</v>
+        <v>1.04795</v>
       </c>
       <c r="E26">
-        <v>67.67619999999999</v>
+        <v>0.490513</v>
       </c>
       <c r="F26">
-        <v>75.29940000000001</v>
+        <v>0.573251</v>
       </c>
       <c r="G26">
-        <v>64.9118</v>
+        <v>0.440419</v>
       </c>
       <c r="H26">
-        <v>51.6961</v>
+        <v>0.615599</v>
       </c>
       <c r="I26">
-        <v>30.9712</v>
+        <v>0.312128</v>
       </c>
       <c r="J26">
-        <v>7.01504</v>
+        <v>0.570248</v>
       </c>
       <c r="K26">
-        <v>6.61854</v>
+        <v>0.347541</v>
       </c>
       <c r="L26">
-        <v>5.09486</v>
+        <v>0.0867034</v>
       </c>
       <c r="M26">
-        <v>4.49428</v>
+        <v>0.0343427</v>
       </c>
       <c r="N26">
-        <v>173.917</v>
+        <v>0.192307</v>
       </c>
       <c r="O26">
-        <v>166.231</v>
+        <v>0.0620732</v>
       </c>
       <c r="P26">
-        <v>95.83459999999999</v>
+        <v>1.27226</v>
       </c>
       <c r="Q26">
-        <v>134.194</v>
+        <v>0.397352</v>
       </c>
       <c r="R26">
-        <v>114.246</v>
+        <v>9.37541</v>
       </c>
       <c r="S26">
-        <v>100.693</v>
+        <v>7.44859</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ENSMUSG00000042499</t>
+          <t>ENSMUSG00000069171</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Hoxd11</t>
+          <t>Nr2f1</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>chr2:74682322-74684168</t>
+          <t>chr13:78188972-78199757</t>
         </is>
       </c>
       <c r="D27">
-        <v>0.153226</v>
+        <v>1.73243</v>
       </c>
       <c r="E27">
-        <v>0.0890319</v>
+        <v>3.84735</v>
       </c>
       <c r="F27">
-        <v>7.48073</v>
+        <v>0.624754</v>
       </c>
       <c r="G27">
-        <v>3.22539</v>
+        <v>0.413743</v>
       </c>
       <c r="H27">
-        <v>16.4241</v>
+        <v>1.028</v>
       </c>
       <c r="I27">
-        <v>2.77249</v>
+        <v>0.10672</v>
       </c>
       <c r="J27">
-        <v>0.433569</v>
+        <v>0.0458507</v>
       </c>
       <c r="K27">
-        <v>0.6606030000000001</v>
+        <v>0.0880688</v>
       </c>
       <c r="L27">
-        <v>2.83609</v>
+        <v>16.0086</v>
       </c>
       <c r="M27">
-        <v>1.44617</v>
+        <v>17.5865</v>
       </c>
       <c r="N27">
-        <v>65.3913</v>
+        <v>0.483995</v>
       </c>
       <c r="O27">
-        <v>48.0302</v>
+        <v>0.86299</v>
       </c>
       <c r="P27">
-        <v>44.2968</v>
+        <v>2.98413</v>
       </c>
       <c r="Q27">
-        <v>42.3815</v>
+        <v>1.19145</v>
       </c>
       <c r="R27">
-        <v>20.6227</v>
+        <v>1.43262</v>
       </c>
       <c r="S27">
-        <v>38.7381</v>
+        <v>3.12712</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ENSMUSG00000025407</t>
+          <t>ENSMUSG00000023991</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Gli1</t>
+          <t>Foxp4</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>chr10:127329881-127341974</t>
+          <t>chr17:47867132-47924645</t>
         </is>
       </c>
       <c r="D28">
-        <v>0.305053</v>
+        <v>50.0793</v>
       </c>
       <c r="E28">
-        <v>0.182859</v>
+        <v>40.837</v>
       </c>
       <c r="F28">
-        <v>5.81968</v>
+        <v>45.5378</v>
       </c>
       <c r="G28">
-        <v>12.2123</v>
+        <v>33.6097</v>
       </c>
       <c r="H28">
-        <v>7.22751</v>
+        <v>42.6407</v>
       </c>
       <c r="I28">
-        <v>14.1718</v>
+        <v>38.8294</v>
       </c>
       <c r="J28">
-        <v>0.536633</v>
+        <v>48.2234</v>
       </c>
       <c r="K28">
-        <v>1.28025</v>
+        <v>37.4826</v>
       </c>
       <c r="L28">
-        <v>0.705241</v>
+        <v>28.2273</v>
       </c>
       <c r="M28">
-        <v>0.668299</v>
+        <v>25.9305</v>
       </c>
       <c r="N28">
-        <v>9.655469999999999</v>
+        <v>11.2559</v>
       </c>
       <c r="O28">
-        <v>18.6634</v>
+        <v>9.99588</v>
       </c>
       <c r="P28">
-        <v>12.0866</v>
+        <v>30.4163</v>
       </c>
       <c r="Q28">
-        <v>18.5722</v>
+        <v>14.327</v>
       </c>
       <c r="R28">
-        <v>4.20404</v>
+        <v>64.072</v>
       </c>
       <c r="S28">
-        <v>4.00502</v>
+        <v>32.5141</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ENSMUSG00000074971</t>
+          <t>ENSMUSG00000054640</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Fibin</t>
+          <t>Slc8a1</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>chr2:110360916-110363183</t>
+          <t>chr17:81388690-81649607</t>
         </is>
       </c>
       <c r="D29">
-        <v>0.300369</v>
+        <v>2.01175</v>
       </c>
       <c r="E29">
-        <v>0.196345</v>
+        <v>1.87375</v>
       </c>
       <c r="F29">
-        <v>0.123231</v>
+        <v>0.825334</v>
       </c>
       <c r="G29">
-        <v>0.0246981</v>
+        <v>0.89521</v>
       </c>
       <c r="H29">
-        <v>0.0311375</v>
+        <v>2.26952</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>1.44733</v>
       </c>
       <c r="J29">
-        <v>0.261515</v>
+        <v>0.7727309999999999</v>
       </c>
       <c r="K29">
-        <v>0.0249035</v>
+        <v>0.647549</v>
       </c>
       <c r="L29">
-        <v>2.36443</v>
+        <v>5.72778</v>
       </c>
       <c r="M29">
-        <v>1.37316</v>
+        <v>6.26522</v>
       </c>
       <c r="N29">
-        <v>0.173627</v>
+        <v>1.64175</v>
       </c>
       <c r="O29">
-        <v>0.0800626</v>
+        <v>1.8926</v>
       </c>
       <c r="P29">
-        <v>0.478619</v>
+        <v>5.61665</v>
       </c>
       <c r="Q29">
-        <v>0.350664</v>
+        <v>3.20946</v>
       </c>
       <c r="R29">
-        <v>10.252</v>
+        <v>12.7599</v>
       </c>
       <c r="S29">
-        <v>3.73048</v>
+        <v>10.3688</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>ENSMUSG00000022483</t>
+          <t>ENSMUSG00000032332</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Col2a1</t>
+          <t>Col12a1</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>chr15:97975601-98004695</t>
+          <t>chr9:79598990-79718720</t>
         </is>
       </c>
       <c r="D30">
-        <v>219.981</v>
+        <v>0.0593424</v>
       </c>
       <c r="E30">
-        <v>153.486</v>
+        <v>0.225953</v>
       </c>
       <c r="F30">
-        <v>275.876</v>
+        <v>0.276067</v>
       </c>
       <c r="G30">
-        <v>188.866</v>
+        <v>0.209157</v>
       </c>
       <c r="H30">
-        <v>106.49</v>
+        <v>0.44763</v>
       </c>
       <c r="I30">
-        <v>125.971</v>
+        <v>0.672616</v>
       </c>
       <c r="J30">
-        <v>69.6202</v>
+        <v>1.76412</v>
       </c>
       <c r="K30">
-        <v>74.3409</v>
+        <v>0.686642</v>
       </c>
       <c r="L30">
-        <v>7.25853</v>
+        <v>0.856289</v>
       </c>
       <c r="M30">
-        <v>5.22838</v>
+        <v>0.577882</v>
       </c>
       <c r="N30">
-        <v>6.11344</v>
+        <v>0.7547199999999999</v>
       </c>
       <c r="O30">
-        <v>3.40198</v>
+        <v>0.332929</v>
       </c>
       <c r="P30">
-        <v>18.6357</v>
+        <v>0.642425</v>
       </c>
       <c r="Q30">
-        <v>7.67876</v>
+        <v>0.143434</v>
       </c>
       <c r="R30">
-        <v>82.74209999999999</v>
+        <v>12.8952</v>
       </c>
       <c r="S30">
-        <v>48.334</v>
+        <v>3.06165</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>ENSMUSG00000074934</t>
+          <t>ENSMUSG00000045608</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Grem1</t>
+          <t>Dbx2</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>chr2:113746163-113758646</t>
+          <t>chr15:95623562-95655960</t>
         </is>
       </c>
       <c r="D31">
-        <v>0.513</v>
+        <v>0</v>
       </c>
       <c r="E31">
-        <v>0.8942369999999999</v>
+        <v>0.014294</v>
       </c>
       <c r="F31">
-        <v>3.63685</v>
+        <v>0</v>
       </c>
       <c r="G31">
-        <v>1.93025</v>
+        <v>0</v>
       </c>
       <c r="H31">
-        <v>0.850876</v>
+        <v>0.357024</v>
       </c>
       <c r="I31">
-        <v>4.8818</v>
+        <v>0.016486</v>
       </c>
       <c r="J31">
-        <v>0.0357314</v>
+        <v>0.439072</v>
       </c>
       <c r="K31">
-        <v>0.108884</v>
+        <v>0.0163168</v>
       </c>
       <c r="L31">
-        <v>4.81965</v>
+        <v>0</v>
       </c>
       <c r="M31">
-        <v>6.29429</v>
+        <v>0</v>
       </c>
       <c r="N31">
-        <v>12.1733</v>
+        <v>0.0325032</v>
       </c>
       <c r="O31">
-        <v>11.2892</v>
+        <v>0</v>
       </c>
       <c r="P31">
-        <v>2.92408</v>
+        <v>1.04157</v>
       </c>
       <c r="Q31">
-        <v>13.666</v>
+        <v>0.335797</v>
       </c>
       <c r="R31">
-        <v>0.441181</v>
+        <v>10.4935</v>
       </c>
       <c r="S31">
-        <v>1.27077</v>
+        <v>2.26007</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>ENSMUSG00000001819</t>
+          <t>ENSMUSG00000039239</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Hoxd13</t>
+          <t>Tgfb2</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>chr2:74668309-74671599</t>
+          <t>chr1:186622791-186705989</t>
         </is>
       </c>
       <c r="D32">
-        <v>0.342799</v>
+        <v>6.21414</v>
       </c>
       <c r="E32">
-        <v>0.298775</v>
+        <v>4.506</v>
       </c>
       <c r="F32">
-        <v>6.94754</v>
+        <v>11.8616</v>
       </c>
       <c r="G32">
-        <v>12.267</v>
+        <v>14.1138</v>
       </c>
       <c r="H32">
-        <v>94.6536</v>
+        <v>11.5001</v>
       </c>
       <c r="I32">
-        <v>13.1634</v>
+        <v>16.2959</v>
       </c>
       <c r="J32">
-        <v>5.61099</v>
+        <v>8.843870000000001</v>
       </c>
       <c r="K32">
-        <v>8.66283</v>
+        <v>11.6262</v>
       </c>
       <c r="L32">
-        <v>3.07766</v>
+        <v>11.2162</v>
       </c>
       <c r="M32">
-        <v>2.70963</v>
+        <v>11.9397</v>
       </c>
       <c r="N32">
-        <v>129.298</v>
+        <v>2.55191</v>
       </c>
       <c r="O32">
-        <v>265.053</v>
+        <v>2.10639</v>
       </c>
       <c r="P32">
-        <v>318.03</v>
+        <v>4.18427</v>
       </c>
       <c r="Q32">
-        <v>376.63</v>
+        <v>2.20438</v>
       </c>
       <c r="R32">
-        <v>202.223</v>
+        <v>7.73473</v>
       </c>
       <c r="S32">
-        <v>395.838</v>
+        <v>9.15795</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>ENSMUSG00000040289</t>
+          <t>ENSMUSG00000001506</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Hey1</t>
+          <t>Col1a1</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>chr3:8663358-8667256</t>
+          <t>chr11:94936223-94953042</t>
         </is>
       </c>
       <c r="D33">
-        <v>3.26697</v>
+        <v>19.7075</v>
       </c>
       <c r="E33">
-        <v>3.26585</v>
+        <v>7.65628</v>
       </c>
       <c r="F33">
-        <v>5.67837</v>
+        <v>6.70144</v>
       </c>
       <c r="G33">
-        <v>6.3547</v>
+        <v>3.88064</v>
       </c>
       <c r="H33">
-        <v>15.1199</v>
+        <v>13.1357</v>
       </c>
       <c r="I33">
-        <v>6.82707</v>
+        <v>5.30975</v>
       </c>
       <c r="J33">
-        <v>4.64888</v>
+        <v>8.46668</v>
       </c>
       <c r="K33">
-        <v>4.61342</v>
+        <v>4.72213</v>
       </c>
       <c r="L33">
-        <v>8.370469999999999</v>
+        <v>18.3041</v>
       </c>
       <c r="M33">
-        <v>7.06615</v>
+        <v>12.4464</v>
       </c>
       <c r="N33">
-        <v>53.5269</v>
+        <v>14.3611</v>
       </c>
       <c r="O33">
-        <v>62.7479</v>
+        <v>9.62093</v>
       </c>
       <c r="P33">
-        <v>34.5768</v>
+        <v>37.3591</v>
       </c>
       <c r="Q33">
-        <v>56.6581</v>
+        <v>16.2208</v>
       </c>
       <c r="R33">
-        <v>12.2203</v>
+        <v>122.979</v>
       </c>
       <c r="S33">
-        <v>27.0379</v>
+        <v>30.0271</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ENSMUSG00000038203</t>
+          <t>ENSMUSG00000027832</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Hoxa13</t>
+          <t>Ptx3</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>chr6:52257693-52260880</t>
+          <t>chr3:66219909-66225805</t>
         </is>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>0.493302</v>
       </c>
       <c r="E34">
-        <v>0.0206502</v>
+        <v>0.599324</v>
       </c>
       <c r="F34">
-        <v>1.83716</v>
+        <v>0.147189</v>
       </c>
       <c r="G34">
-        <v>5.49464</v>
+        <v>0.294998</v>
       </c>
       <c r="H34">
-        <v>23.3035</v>
+        <v>0.0371911</v>
       </c>
       <c r="I34">
-        <v>5.0359</v>
+        <v>0.0901603</v>
       </c>
       <c r="J34">
-        <v>2.65795</v>
+        <v>0.488059</v>
       </c>
       <c r="K34">
-        <v>2.13435</v>
+        <v>0.446176</v>
       </c>
       <c r="L34">
-        <v>0.181465</v>
+        <v>2.15624</v>
       </c>
       <c r="M34">
-        <v>0.104821</v>
+        <v>2.46019</v>
       </c>
       <c r="N34">
-        <v>60.7114</v>
+        <v>0.62215</v>
       </c>
       <c r="O34">
-        <v>75.9161</v>
+        <v>0.382512</v>
       </c>
       <c r="P34">
-        <v>73.99639999999999</v>
+        <v>0.592086</v>
       </c>
       <c r="Q34">
-        <v>86.5534</v>
+        <v>0.322183</v>
       </c>
       <c r="R34">
-        <v>95.3287</v>
+        <v>7.26994</v>
       </c>
       <c r="S34">
-        <v>82.1747</v>
+        <v>1.55646</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>ENSMUSG00000035245</t>
+          <t>ENSMUSG00000021943</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Eogt</t>
+          <t>Gdf10</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>chr6:97110023-97149182</t>
+          <t>chr14:33923586-33937983</t>
         </is>
       </c>
       <c r="D35">
-        <v>2.62498</v>
+        <v>0.0816862</v>
       </c>
       <c r="E35">
-        <v>2.84295</v>
+        <v>0.10442</v>
       </c>
       <c r="F35">
-        <v>11.4923</v>
+        <v>0.0134052</v>
       </c>
       <c r="G35">
-        <v>20.838</v>
+        <v>0.0107468</v>
       </c>
       <c r="H35">
-        <v>19.6863</v>
+        <v>1.07035</v>
       </c>
       <c r="I35">
-        <v>28.8525</v>
+        <v>0.0547422</v>
       </c>
       <c r="J35">
-        <v>21.0253</v>
+        <v>0.206248</v>
       </c>
       <c r="K35">
-        <v>31.8366</v>
+        <v>0.205886</v>
       </c>
       <c r="L35">
-        <v>6.20459</v>
+        <v>0.215496</v>
       </c>
       <c r="M35">
-        <v>7.69932</v>
+        <v>0.250563</v>
       </c>
       <c r="N35">
-        <v>29.7445</v>
+        <v>0.280613</v>
       </c>
       <c r="O35">
-        <v>34.9032</v>
+        <v>0.185799</v>
       </c>
       <c r="P35">
-        <v>10.3876</v>
+        <v>4.84945</v>
       </c>
       <c r="Q35">
-        <v>20.652</v>
+        <v>1.42019</v>
       </c>
       <c r="R35">
-        <v>3.89263</v>
+        <v>11.8231</v>
       </c>
       <c r="S35">
-        <v>8.79627</v>
+        <v>5.54787</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>ENSMUSG00000001911</t>
+          <t>ENSMUSG00000021469</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Nfix</t>
+          <t>Msx2</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>chr8:84704711-84800344</t>
+          <t>chr13:53466883-53473074</t>
         </is>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>72.4171</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>80.184</v>
       </c>
       <c r="F36">
-        <v>0.04767</v>
+        <v>62.837</v>
       </c>
       <c r="G36">
-        <v>0.085129</v>
+        <v>55.7624</v>
       </c>
       <c r="H36">
-        <v>0.9402779999999999</v>
+        <v>78.2864</v>
       </c>
       <c r="I36">
-        <v>0.215404</v>
+        <v>83.1786</v>
       </c>
       <c r="J36">
-        <v>1.28673</v>
+        <v>126.266</v>
       </c>
       <c r="K36">
-        <v>0.491571</v>
+        <v>97.69929999999999</v>
       </c>
       <c r="L36">
-        <v>0.0503031</v>
+        <v>11.4572</v>
       </c>
       <c r="M36">
-        <v>0.0355956</v>
+        <v>9.783910000000001</v>
       </c>
       <c r="N36">
-        <v>0.282386</v>
+        <v>14.2353</v>
       </c>
       <c r="O36">
-        <v>0.455266</v>
+        <v>9.12566</v>
       </c>
       <c r="P36">
-        <v>4.32397</v>
+        <v>46.5233</v>
       </c>
       <c r="Q36">
-        <v>1.57362</v>
+        <v>21.6631</v>
       </c>
       <c r="R36">
-        <v>32.954</v>
+        <v>120.261</v>
       </c>
       <c r="S36">
-        <v>11.5577</v>
+        <v>70.86499999999999</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>ENSMUSG00000024827</t>
+          <t>ENSMUSG00000000690</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Gldc</t>
+          <t>Hoxb6</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>chr19:30098448-30175418</t>
+          <t>chr11:96292475-96301569</t>
         </is>
       </c>
       <c r="D37">
-        <v>15.214</v>
+        <v>4.77372</v>
       </c>
       <c r="E37">
-        <v>13.8596</v>
+        <v>3.58135</v>
       </c>
       <c r="F37">
-        <v>13.0789</v>
+        <v>0.105739</v>
       </c>
       <c r="G37">
-        <v>13.0655</v>
+        <v>0.296694</v>
       </c>
       <c r="H37">
-        <v>11.5924</v>
+        <v>0.0534354</v>
       </c>
       <c r="I37">
-        <v>12.9308</v>
+        <v>0.129541</v>
       </c>
       <c r="J37">
-        <v>8.152939999999999</v>
+        <v>0</v>
       </c>
       <c r="K37">
-        <v>8.512040000000001</v>
+        <v>0</v>
       </c>
       <c r="L37">
-        <v>11.4325</v>
+        <v>22.8737</v>
       </c>
       <c r="M37">
-        <v>13.2544</v>
+        <v>25.1512</v>
       </c>
       <c r="N37">
-        <v>35.8218</v>
+        <v>0.297966</v>
       </c>
       <c r="O37">
-        <v>24.0133</v>
+        <v>0.183196</v>
       </c>
       <c r="P37">
-        <v>7.52517</v>
+        <v>0.0293342</v>
       </c>
       <c r="Q37">
-        <v>10.6533</v>
+        <v>0.0462903</v>
       </c>
       <c r="R37">
-        <v>1.84269</v>
+        <v>0.0277062</v>
       </c>
       <c r="S37">
-        <v>2.80828</v>
+        <v>0.0876977</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>ENSMUSG00000024565</t>
+          <t>ENSMUSG00000022454</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Sall3</t>
+          <t>Nell2</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>chr18:80966375-80986578</t>
+          <t>chr15:95075229-95528559</t>
         </is>
       </c>
       <c r="D38">
-        <v>2.64523</v>
+        <v>4.22113</v>
       </c>
       <c r="E38">
-        <v>2.09005</v>
+        <v>2.74588</v>
       </c>
       <c r="F38">
-        <v>8.266120000000001</v>
+        <v>5.23267</v>
       </c>
       <c r="G38">
-        <v>7.09031</v>
+        <v>5.08374</v>
       </c>
       <c r="H38">
-        <v>2.02971</v>
+        <v>5.18168</v>
       </c>
       <c r="I38">
-        <v>3.99273</v>
+        <v>5.14993</v>
       </c>
       <c r="J38">
-        <v>0.672623</v>
+        <v>4.03743</v>
       </c>
       <c r="K38">
-        <v>0.885458</v>
+        <v>3.24596</v>
       </c>
       <c r="L38">
-        <v>5.99063</v>
+        <v>1.18139</v>
       </c>
       <c r="M38">
-        <v>10.4487</v>
+        <v>0.943836</v>
       </c>
       <c r="N38">
-        <v>27.0823</v>
+        <v>0.925719</v>
       </c>
       <c r="O38">
-        <v>17.2558</v>
+        <v>0.544889</v>
       </c>
       <c r="P38">
-        <v>3.72541</v>
+        <v>1.65859</v>
       </c>
       <c r="Q38">
-        <v>5.78114</v>
+        <v>0.8166099999999999</v>
       </c>
       <c r="R38">
-        <v>1.24375</v>
+        <v>13.6001</v>
       </c>
       <c r="S38">
-        <v>1.43844</v>
+        <v>3.36133</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>ENSMUSG00000036523</t>
+          <t>ENSMUSG00000054196</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Greb1</t>
+          <t>Cthrc1</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>chr12:16670614-16800886</t>
+          <t>chr15:39076931-39087121</t>
         </is>
       </c>
       <c r="D39">
-        <v>8.58962</v>
+        <v>4.53021</v>
       </c>
       <c r="E39">
-        <v>11.5313</v>
+        <v>3.78834</v>
       </c>
       <c r="F39">
-        <v>10.8644</v>
+        <v>1.19798</v>
       </c>
       <c r="G39">
-        <v>16.4352</v>
+        <v>2.54506</v>
       </c>
       <c r="H39">
-        <v>14.9771</v>
+        <v>0.823798</v>
       </c>
       <c r="I39">
-        <v>16.587</v>
+        <v>0.952452</v>
       </c>
       <c r="J39">
-        <v>8.22687</v>
+        <v>1.77959</v>
       </c>
       <c r="K39">
-        <v>11.9855</v>
+        <v>1.1793</v>
       </c>
       <c r="L39">
-        <v>4.55163</v>
+        <v>0.683346</v>
       </c>
       <c r="M39">
-        <v>7.05498</v>
+        <v>0.301429</v>
       </c>
       <c r="N39">
-        <v>22.9625</v>
+        <v>0.241126</v>
       </c>
       <c r="O39">
-        <v>27.4367</v>
+        <v>0.207572</v>
       </c>
       <c r="P39">
-        <v>10.5461</v>
+        <v>1.08577</v>
       </c>
       <c r="Q39">
-        <v>23.0952</v>
+        <v>0.736408</v>
       </c>
       <c r="R39">
-        <v>3.13165</v>
+        <v>7.96156</v>
       </c>
       <c r="S39">
-        <v>8.79299</v>
+        <v>4.69581</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>ENSMUSG00000032246</t>
+          <t>ENSMUSG00000047759</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Calml4</t>
+          <t>Hs3st3a1</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>chr9:62858079-62875921</t>
+          <t>chr11:64435331-64522841</t>
         </is>
       </c>
       <c r="D40">
-        <v>0.8854340000000001</v>
+        <v>0.864351</v>
       </c>
       <c r="E40">
-        <v>1.68356</v>
+        <v>0.502231</v>
       </c>
       <c r="F40">
-        <v>2.0827</v>
+        <v>0.195037</v>
       </c>
       <c r="G40">
-        <v>1.62828</v>
+        <v>0.298503</v>
       </c>
       <c r="H40">
-        <v>1.05898</v>
+        <v>0.161284</v>
       </c>
       <c r="I40">
-        <v>0.408009</v>
+        <v>0.463398</v>
       </c>
       <c r="J40">
-        <v>0.37363</v>
+        <v>0.564409</v>
       </c>
       <c r="K40">
-        <v>0.161523</v>
+        <v>0.143326</v>
       </c>
       <c r="L40">
-        <v>0.378358</v>
+        <v>2.1791</v>
       </c>
       <c r="M40">
-        <v>0.668698</v>
+        <v>2.19242</v>
       </c>
       <c r="N40">
-        <v>5.2537</v>
+        <v>0.0927896</v>
       </c>
       <c r="O40">
-        <v>5.17951</v>
+        <v>0.107516</v>
       </c>
       <c r="P40">
-        <v>3.84577</v>
+        <v>0.108216</v>
       </c>
       <c r="Q40">
-        <v>5.67088</v>
+        <v>0.35706</v>
       </c>
       <c r="R40">
-        <v>0.261792</v>
+        <v>4.26494</v>
       </c>
       <c r="S40">
-        <v>0.793902</v>
+        <v>0.70586</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>ENSMUSG00000059921</t>
+          <t>ENSMUSG00000041324</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Unc5c</t>
+          <t>Inhba</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>chr3:141465215-141834924</t>
+          <t>chr13:16011850-16031621</t>
         </is>
       </c>
       <c r="D41">
-        <v>14.8278</v>
+        <v>0</v>
       </c>
       <c r="E41">
-        <v>11.3323</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>11.5315</v>
+        <v>0</v>
       </c>
       <c r="G41">
-        <v>11.672</v>
+        <v>0.0350489</v>
       </c>
       <c r="H41">
-        <v>11.8652</v>
+        <v>0.0231785</v>
       </c>
       <c r="I41">
-        <v>12.4031</v>
+        <v>0.008926659999999999</v>
       </c>
       <c r="J41">
-        <v>10.1437</v>
+        <v>0.231528</v>
       </c>
       <c r="K41">
-        <v>8.56344</v>
+        <v>0.185538</v>
       </c>
       <c r="L41">
-        <v>5.70894</v>
+        <v>0</v>
       </c>
       <c r="M41">
-        <v>4.77096</v>
+        <v>0</v>
       </c>
       <c r="N41">
-        <v>2.22801</v>
+        <v>0.00439988</v>
       </c>
       <c r="O41">
-        <v>2.47542</v>
+        <v>0.0189361</v>
       </c>
       <c r="P41">
-        <v>10.622</v>
+        <v>0.64264</v>
       </c>
       <c r="Q41">
-        <v>6.42786</v>
+        <v>0.239246</v>
       </c>
       <c r="R41">
-        <v>40.2552</v>
+        <v>6.22488</v>
       </c>
       <c r="S41">
-        <v>19.6289</v>
+        <v>4.89807</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>ENSMUSG00000027570</t>
+          <t>ENSMUSG00000008540</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Col9a3</t>
+          <t>Mgst1</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>chr2:180597789-180622189</t>
+          <t>chr6:138140315-138156755</t>
         </is>
       </c>
       <c r="D42">
-        <v>4.15715</v>
+        <v>80.41079999999999</v>
       </c>
       <c r="E42">
-        <v>2.8152</v>
+        <v>60.455</v>
       </c>
       <c r="F42">
-        <v>1.98774</v>
+        <v>59.8294</v>
       </c>
       <c r="G42">
-        <v>1.73126</v>
+        <v>55.0377</v>
       </c>
       <c r="H42">
-        <v>3.18715</v>
+        <v>36.0856</v>
       </c>
       <c r="I42">
-        <v>2.64563</v>
+        <v>34.2537</v>
       </c>
       <c r="J42">
-        <v>3.46318</v>
+        <v>33.0222</v>
       </c>
       <c r="K42">
-        <v>3.23343</v>
+        <v>26.0679</v>
       </c>
       <c r="L42">
-        <v>0.152705</v>
+        <v>25.866</v>
       </c>
       <c r="M42">
-        <v>0.158774</v>
+        <v>11.8843</v>
       </c>
       <c r="N42">
-        <v>0.434668</v>
+        <v>10.994</v>
       </c>
       <c r="O42">
-        <v>0.5739649999999999</v>
+        <v>9.24213</v>
       </c>
       <c r="P42">
-        <v>5.85486</v>
+        <v>28.7178</v>
       </c>
       <c r="Q42">
-        <v>1.82634</v>
+        <v>14.4426</v>
       </c>
       <c r="R42">
-        <v>25.1161</v>
+        <v>57.3233</v>
       </c>
       <c r="S42">
-        <v>19.7628</v>
+        <v>42.6296</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>ENSMUSG00000048582</t>
+          <t>ENSMUSG00000028883</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Gja3</t>
+          <t>Sema3a</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>chr14:57034459-57058100</t>
+          <t>chr5:13396783-13602565</t>
         </is>
       </c>
       <c r="D43">
-        <v>0.153863</v>
+        <v>22.8266</v>
       </c>
       <c r="E43">
-        <v>0.286087</v>
+        <v>25.2579</v>
       </c>
       <c r="F43">
-        <v>1.39425</v>
+        <v>15.0795</v>
       </c>
       <c r="G43">
-        <v>1.55867</v>
+        <v>16.5735</v>
       </c>
       <c r="H43">
-        <v>8.635870000000001</v>
+        <v>21.166</v>
       </c>
       <c r="I43">
-        <v>1.85064</v>
+        <v>25.8821</v>
       </c>
       <c r="J43">
-        <v>0.90744</v>
+        <v>26.0738</v>
       </c>
       <c r="K43">
-        <v>0.755198</v>
+        <v>32.3975</v>
       </c>
       <c r="L43">
-        <v>1.04409</v>
+        <v>39.0051</v>
       </c>
       <c r="M43">
-        <v>0.962069</v>
+        <v>60.2372</v>
       </c>
       <c r="N43">
-        <v>12.4082</v>
+        <v>4.44438</v>
       </c>
       <c r="O43">
-        <v>17.8113</v>
+        <v>3.54221</v>
       </c>
       <c r="P43">
-        <v>19.8838</v>
+        <v>4.74886</v>
       </c>
       <c r="Q43">
-        <v>23.9842</v>
+        <v>5.37871</v>
       </c>
       <c r="R43">
-        <v>4.12389</v>
+        <v>6.73422</v>
       </c>
       <c r="S43">
-        <v>11.1538</v>
+        <v>5.71514</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>ENSMUSG00000067860</t>
+          <t>ENSMUSG00000029093</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Zic3</t>
+          <t>Sorcs2</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>chrX:58022699-58041736</t>
+          <t>chr5:36017179-36398139</t>
         </is>
       </c>
       <c r="D44">
-        <v>0.043627</v>
+        <v>5.9208</v>
       </c>
       <c r="E44">
-        <v>0.0331923</v>
+        <v>3.90265</v>
       </c>
       <c r="F44">
-        <v>1.02628</v>
+        <v>13.8446</v>
       </c>
       <c r="G44">
-        <v>3.23905</v>
+        <v>12.0842</v>
       </c>
       <c r="H44">
-        <v>7.82111</v>
+        <v>18.7642</v>
       </c>
       <c r="I44">
-        <v>1.09779</v>
+        <v>20.2962</v>
       </c>
       <c r="J44">
-        <v>0.657188</v>
+        <v>24.2968</v>
       </c>
       <c r="K44">
-        <v>0.84209</v>
+        <v>23.7957</v>
       </c>
       <c r="L44">
-        <v>0.499631</v>
+        <v>2.57754</v>
       </c>
       <c r="M44">
-        <v>0.5848719999999999</v>
+        <v>1.75175</v>
       </c>
       <c r="N44">
-        <v>25.8134</v>
+        <v>1.14714</v>
       </c>
       <c r="O44">
-        <v>23.8183</v>
+        <v>0.907523</v>
       </c>
       <c r="P44">
-        <v>15.7473</v>
+        <v>4.31602</v>
       </c>
       <c r="Q44">
-        <v>24.6389</v>
+        <v>2.22601</v>
       </c>
       <c r="R44">
-        <v>13.4268</v>
+        <v>12.8701</v>
       </c>
       <c r="S44">
-        <v>16.3146</v>
+        <v>5.33912</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>ENSMUSG00000031891</t>
+          <t>ENSMUSG00000031737</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Hsd11b2</t>
+          <t>Irx5</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>chr8:105518754-105523988</t>
+          <t>chr8:92357624-92376286</t>
         </is>
       </c>
       <c r="D45">
-        <v>5.87492</v>
+        <v>2.11924</v>
       </c>
       <c r="E45">
-        <v>2.63414</v>
+        <v>1.89754</v>
       </c>
       <c r="F45">
-        <v>4.44098</v>
+        <v>1.05474</v>
       </c>
       <c r="G45">
-        <v>3.56028</v>
+        <v>0.845574</v>
       </c>
       <c r="H45">
-        <v>3.04989</v>
+        <v>0.907569</v>
       </c>
       <c r="I45">
-        <v>1.98405</v>
+        <v>0.53549</v>
       </c>
       <c r="J45">
-        <v>0.463168</v>
+        <v>2.10221</v>
       </c>
       <c r="K45">
-        <v>0.521606</v>
+        <v>1.58999</v>
       </c>
       <c r="L45">
-        <v>14.2507</v>
+        <v>6.43955</v>
       </c>
       <c r="M45">
-        <v>10.9696</v>
+        <v>7.45963</v>
       </c>
       <c r="N45">
-        <v>69.5547</v>
+        <v>0.10328</v>
       </c>
       <c r="O45">
-        <v>44.0931</v>
+        <v>0</v>
       </c>
       <c r="P45">
-        <v>15.3951</v>
+        <v>0.0316327</v>
       </c>
       <c r="Q45">
-        <v>19.3421</v>
+        <v>0</v>
       </c>
       <c r="R45">
-        <v>7.93672</v>
+        <v>0.806702</v>
       </c>
       <c r="S45">
-        <v>9.00351</v>
+        <v>0.330998</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>ENSMUSG00000031665</t>
+          <t>ENSMUSG00000032841</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Sall1</t>
+          <t>Prr5l</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>chr8:89027234-89044162</t>
+          <t>chr2:101714284-101883014</t>
         </is>
       </c>
       <c r="D46">
-        <v>24.0559</v>
+        <v>8.22864</v>
       </c>
       <c r="E46">
-        <v>29.6743</v>
+        <v>6.48109</v>
       </c>
       <c r="F46">
-        <v>30.616</v>
+        <v>9.45059</v>
       </c>
       <c r="G46">
-        <v>34.8068</v>
+        <v>9.682539999999999</v>
       </c>
       <c r="H46">
-        <v>26.0434</v>
+        <v>19.364</v>
       </c>
       <c r="I46">
-        <v>34.474</v>
+        <v>11.5822</v>
       </c>
       <c r="J46">
-        <v>14.1809</v>
+        <v>16.224</v>
       </c>
       <c r="K46">
-        <v>19.9661</v>
+        <v>14.3045</v>
       </c>
       <c r="L46">
-        <v>4.47127</v>
+        <v>6.08407</v>
       </c>
       <c r="M46">
-        <v>8.620889999999999</v>
+        <v>6.43069</v>
       </c>
       <c r="N46">
-        <v>67.6688</v>
+        <v>7.23445</v>
       </c>
       <c r="O46">
-        <v>60.3168</v>
+        <v>6.36447</v>
       </c>
       <c r="P46">
-        <v>15.1398</v>
+        <v>24.3721</v>
       </c>
       <c r="Q46">
-        <v>31.545</v>
+        <v>14.9396</v>
       </c>
       <c r="R46">
-        <v>21.6961</v>
+        <v>69.002</v>
       </c>
       <c r="S46">
-        <v>15.9417</v>
+        <v>42.7392</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>ENSMUSG00000052217</t>
+          <t>ENSMUSG00000046402</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Hbb-bh1</t>
+          <t>Rbp1</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>chr7:103841636-103843164</t>
+          <t>chr9:98422960-98446575</t>
         </is>
       </c>
       <c r="D47">
-        <v>33.047</v>
+        <v>26.9922</v>
       </c>
       <c r="E47">
-        <v>240.348</v>
+        <v>20.6072</v>
       </c>
       <c r="F47">
-        <v>22.217</v>
+        <v>14.1947</v>
       </c>
       <c r="G47">
-        <v>54.5293</v>
+        <v>10.3241</v>
       </c>
       <c r="H47">
-        <v>1.78487</v>
+        <v>11.0461</v>
       </c>
       <c r="I47">
-        <v>4.55959</v>
+        <v>8.883139999999999</v>
       </c>
       <c r="J47">
-        <v>1.99472</v>
+        <v>6.63664</v>
       </c>
       <c r="K47">
-        <v>0.644687</v>
+        <v>7.81275</v>
       </c>
       <c r="L47">
-        <v>1259.15</v>
+        <v>6.65075</v>
       </c>
       <c r="M47">
-        <v>836.026</v>
+        <v>3.69184</v>
       </c>
       <c r="N47">
-        <v>1328.48</v>
+        <v>4.23001</v>
       </c>
       <c r="O47">
-        <v>1041.84</v>
+        <v>3.74137</v>
       </c>
       <c r="P47">
-        <v>400.596</v>
+        <v>9.89232</v>
       </c>
       <c r="Q47">
-        <v>513.7430000000001</v>
+        <v>5.37256</v>
       </c>
       <c r="R47">
-        <v>70.0363</v>
+        <v>38.0633</v>
       </c>
       <c r="S47">
-        <v>151.851</v>
+        <v>11.0738</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>ENSMUSG00000032698</t>
+          <t>ENSMUSG00000019970</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Lmo2</t>
+          <t>Sgk1</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>chr2:103957985-103981878</t>
+          <t>chr10:21882183-21999903</t>
         </is>
       </c>
       <c r="D48">
-        <v>1.14692</v>
+        <v>0.625093</v>
       </c>
       <c r="E48">
-        <v>0.668197</v>
+        <v>0.628028</v>
       </c>
       <c r="F48">
-        <v>4.97219</v>
+        <v>1.0123</v>
       </c>
       <c r="G48">
-        <v>8.31842</v>
+        <v>0.556557</v>
       </c>
       <c r="H48">
-        <v>18.8665</v>
+        <v>1.30203</v>
       </c>
       <c r="I48">
-        <v>6.30911</v>
+        <v>0.580632</v>
       </c>
       <c r="J48">
-        <v>5.52524</v>
+        <v>0.894669</v>
       </c>
       <c r="K48">
-        <v>2.80618</v>
+        <v>0.584222</v>
       </c>
       <c r="L48">
-        <v>15.3303</v>
+        <v>5.04656</v>
       </c>
       <c r="M48">
-        <v>15.1868</v>
+        <v>3.47912</v>
       </c>
       <c r="N48">
-        <v>76.9654</v>
+        <v>1.98906</v>
       </c>
       <c r="O48">
-        <v>87.8622</v>
+        <v>3.3525</v>
       </c>
       <c r="P48">
-        <v>36.2739</v>
+        <v>15.1314</v>
       </c>
       <c r="Q48">
-        <v>54.0035</v>
+        <v>7.92135</v>
       </c>
       <c r="R48">
-        <v>19.3811</v>
+        <v>19.6909</v>
       </c>
       <c r="S48">
-        <v>23.7123</v>
+        <v>23.3505</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>ENSMUSG00000053007</t>
+          <t>ENSMUSG00000020875</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Creb5</t>
+          <t>Hoxb9</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>chr6:53287269-53700376</t>
+          <t>chr11:96271456-96276595</t>
         </is>
       </c>
       <c r="D49">
-        <v>0.0365286</v>
+        <v>3.26209</v>
       </c>
       <c r="E49">
-        <v>0.0462703</v>
+        <v>3.69652</v>
       </c>
       <c r="F49">
-        <v>0.19293</v>
+        <v>1.16966</v>
       </c>
       <c r="G49">
-        <v>0.188032</v>
+        <v>0.66626</v>
       </c>
       <c r="H49">
-        <v>0.0518895</v>
+        <v>0.846047</v>
       </c>
       <c r="I49">
-        <v>0.0304943</v>
+        <v>0.251393</v>
       </c>
       <c r="J49">
-        <v>0.23237</v>
+        <v>0.0816499</v>
       </c>
       <c r="K49">
-        <v>0.256285</v>
+        <v>0.0877339</v>
       </c>
       <c r="L49">
-        <v>0.277958</v>
+        <v>15.0729</v>
       </c>
       <c r="M49">
-        <v>0.285648</v>
+        <v>19.8265</v>
       </c>
       <c r="N49">
-        <v>0.0980152</v>
+        <v>0.404916</v>
       </c>
       <c r="O49">
-        <v>0.0749464</v>
+        <v>0.74659</v>
       </c>
       <c r="P49">
-        <v>2.17312</v>
+        <v>0.478195</v>
       </c>
       <c r="Q49">
-        <v>0.6488120000000001</v>
+        <v>0.565955</v>
       </c>
       <c r="R49">
-        <v>8.88937</v>
+        <v>0.661354</v>
       </c>
       <c r="S49">
-        <v>11.7482</v>
+        <v>0.969144</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>ENSMUSG00000029413</t>
+          <t>ENSMUSG00000038700</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Naaa</t>
+          <t>Hoxb5</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>chr5:92257658-92278170</t>
+          <t>chr11:96303511-96306120</t>
         </is>
       </c>
       <c r="D50">
-        <v>12.7244</v>
+        <v>6.87224</v>
       </c>
       <c r="E50">
-        <v>14.8461</v>
+        <v>4.3585</v>
       </c>
       <c r="F50">
-        <v>4.66937</v>
+        <v>0.368554</v>
       </c>
       <c r="G50">
-        <v>3.04485</v>
+        <v>0.561384</v>
       </c>
       <c r="H50">
-        <v>2.97877</v>
+        <v>0.03725</v>
       </c>
       <c r="I50">
-        <v>2.26734</v>
+        <v>0.120404</v>
       </c>
       <c r="J50">
-        <v>0.617247</v>
+        <v>0</v>
       </c>
       <c r="K50">
-        <v>0.827386</v>
+        <v>0</v>
       </c>
       <c r="L50">
-        <v>2.43538</v>
+        <v>15.7483</v>
       </c>
       <c r="M50">
-        <v>2.50968</v>
+        <v>17.805</v>
       </c>
       <c r="N50">
-        <v>11.3692</v>
+        <v>0.237385</v>
       </c>
       <c r="O50">
-        <v>16.5985</v>
+        <v>0.127706</v>
       </c>
       <c r="P50">
-        <v>3.82016</v>
+        <v>0.204491</v>
       </c>
       <c r="Q50">
-        <v>6.25381</v>
+        <v>0.225885</v>
       </c>
       <c r="R50">
-        <v>1.7766</v>
+        <v>0.115885</v>
       </c>
       <c r="S50">
-        <v>3.31531</v>
+        <v>0.0917013</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>ENSMUSG00000047786</t>
+          <t>ENSMUSG00000022485</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Lix1</t>
+          <t>Hoxc5</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>chr17:17402671-17459387</t>
+          <t>chr15:103013814-103017429</t>
         </is>
       </c>
       <c r="D51">
-        <v>5.40859</v>
+        <v>35.8173</v>
       </c>
       <c r="E51">
-        <v>4.30967</v>
+        <v>35.972</v>
       </c>
       <c r="F51">
-        <v>3.94481</v>
+        <v>8.195510000000001</v>
       </c>
       <c r="G51">
-        <v>5.81083</v>
+        <v>8.830550000000001</v>
       </c>
       <c r="H51">
-        <v>6.83665</v>
+        <v>1.58179</v>
       </c>
       <c r="I51">
-        <v>1.44617</v>
+        <v>4.64449</v>
       </c>
       <c r="J51">
-        <v>0.249718</v>
+        <v>0.570443</v>
       </c>
       <c r="K51">
-        <v>0.3986</v>
+        <v>2.04733</v>
       </c>
       <c r="L51">
-        <v>46.3685</v>
+        <v>16.9873</v>
       </c>
       <c r="M51">
-        <v>45.4333</v>
+        <v>17.4521</v>
       </c>
       <c r="N51">
-        <v>55.1203</v>
+        <v>0.173135</v>
       </c>
       <c r="O51">
-        <v>52.045</v>
+        <v>0.206981</v>
       </c>
       <c r="P51">
-        <v>11.0858</v>
+        <v>0.119315</v>
       </c>
       <c r="Q51">
-        <v>26.5114</v>
+        <v>0.06276130000000001</v>
       </c>
       <c r="R51">
-        <v>3.3476</v>
+        <v>0</v>
       </c>
       <c r="S51">
-        <v>6.70277</v>
+        <v>0.0198169</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>ENSMUSG00000022636</t>
+          <t>ENSMUSG00000002633</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Alcam</t>
+          <t>Shh</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>chr16:52248995-52454074</t>
+          <t>chr5:28456814-28467256</t>
         </is>
       </c>
       <c r="D52">
-        <v>6.78006</v>
+        <v>0</v>
       </c>
       <c r="E52">
-        <v>5.68702</v>
+        <v>0.0173717</v>
       </c>
       <c r="F52">
-        <v>11.2733</v>
+        <v>0.686881</v>
       </c>
       <c r="G52">
-        <v>16.526</v>
+        <v>0.275332</v>
       </c>
       <c r="H52">
-        <v>35.1858</v>
+        <v>0.359514</v>
       </c>
       <c r="I52">
-        <v>27.9093</v>
+        <v>0.781389</v>
       </c>
       <c r="J52">
-        <v>70.55589999999999</v>
+        <v>0</v>
       </c>
       <c r="K52">
-        <v>71.02500000000001</v>
+        <v>0</v>
       </c>
       <c r="L52">
-        <v>10.5444</v>
+        <v>0.203539</v>
       </c>
       <c r="M52">
-        <v>17.8413</v>
+        <v>0.158722</v>
       </c>
       <c r="N52">
-        <v>1.10611</v>
+        <v>13.1639</v>
       </c>
       <c r="O52">
-        <v>1.58136</v>
+        <v>15.3855</v>
       </c>
       <c r="P52">
-        <v>7.659</v>
+        <v>0.530836</v>
       </c>
       <c r="Q52">
-        <v>4.58924</v>
+        <v>5.0905</v>
       </c>
       <c r="R52">
-        <v>5.94068</v>
+        <v>0.0128558</v>
       </c>
       <c r="S52">
-        <v>12.5676</v>
+        <v>0.0610376</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>ENSMUSG00000025219</t>
+          <t>ENSMUSG00000024521</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Fgf8</t>
+          <t>Pmaip1</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>chr19:45736797-45742915</t>
+          <t>chr18:66458603-66465550</t>
         </is>
       </c>
       <c r="D53">
-        <v>279.809</v>
+        <v>4.50354</v>
       </c>
       <c r="E53">
-        <v>164.964</v>
+        <v>3.25229</v>
       </c>
       <c r="F53">
-        <v>1179.7</v>
+        <v>6.25561</v>
       </c>
       <c r="G53">
-        <v>769.556</v>
+        <v>13.2253</v>
       </c>
       <c r="H53">
-        <v>153.809</v>
+        <v>29.1052</v>
       </c>
       <c r="I53">
-        <v>346.789</v>
+        <v>9.981170000000001</v>
       </c>
       <c r="J53">
-        <v>49.1851</v>
+        <v>6.02153</v>
       </c>
       <c r="K53">
-        <v>60.9514</v>
+        <v>5.3341</v>
       </c>
       <c r="L53">
-        <v>0.722456</v>
+        <v>0.205313</v>
       </c>
       <c r="M53">
-        <v>0.159388</v>
+        <v>0.132828</v>
       </c>
       <c r="N53">
-        <v>6.80512</v>
+        <v>42.2897</v>
       </c>
       <c r="O53">
-        <v>3.13541</v>
+        <v>106.368</v>
       </c>
       <c r="P53">
-        <v>3.33805</v>
+        <v>60.4551</v>
       </c>
       <c r="Q53">
-        <v>1.67492</v>
+        <v>119.805</v>
       </c>
       <c r="R53">
-        <v>0.232383</v>
+        <v>15.9764</v>
       </c>
       <c r="S53">
-        <v>0.0548465</v>
+        <v>47.1979</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>ENSMUSG00000004661</t>
+          <t>ENSMUSG00000027004</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Arid3b</t>
+          <t>Frzb</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>chr9:57790352-57836793</t>
+          <t>chr2:80411969-80447625</t>
         </is>
       </c>
       <c r="D54">
-        <v>78.70180000000001</v>
+        <v>10.2984</v>
       </c>
       <c r="E54">
-        <v>73.7777</v>
+        <v>6.47075</v>
       </c>
       <c r="F54">
-        <v>80.84</v>
+        <v>12.1096</v>
       </c>
       <c r="G54">
-        <v>60.1862</v>
+        <v>14.5089</v>
       </c>
       <c r="H54">
-        <v>40.9745</v>
+        <v>3.53055</v>
       </c>
       <c r="I54">
-        <v>64.1576</v>
+        <v>7.0464</v>
       </c>
       <c r="J54">
-        <v>21.1062</v>
+        <v>0.5295029999999999</v>
       </c>
       <c r="K54">
-        <v>38.5186</v>
+        <v>1.09363</v>
       </c>
       <c r="L54">
-        <v>15.5107</v>
+        <v>13.8704</v>
       </c>
       <c r="M54">
-        <v>17.9882</v>
+        <v>9.757999999999999</v>
       </c>
       <c r="N54">
-        <v>36.8557</v>
+        <v>56.8912</v>
       </c>
       <c r="O54">
-        <v>29.2418</v>
+        <v>55.2172</v>
       </c>
       <c r="P54">
-        <v>9.49301</v>
+        <v>17.9788</v>
       </c>
       <c r="Q54">
-        <v>14.7616</v>
+        <v>39.1098</v>
       </c>
       <c r="R54">
-        <v>2.6185</v>
+        <v>1.25527</v>
       </c>
       <c r="S54">
-        <v>5.74597</v>
+        <v>4.7826</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>ENSMUSG00000018217</t>
+          <t>ENSMUSG00000071553</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Pmp22</t>
+          <t>Cpa2</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>chr11:63128981-63159547</t>
+          <t>chr6:30541581-30564476</t>
         </is>
       </c>
       <c r="D55">
-        <v>6.20768</v>
+        <v>8.830579999999999</v>
       </c>
       <c r="E55">
-        <v>6.88473</v>
+        <v>7.44709</v>
       </c>
       <c r="F55">
-        <v>0.0775875</v>
+        <v>10.4158</v>
       </c>
       <c r="G55">
-        <v>0.794677</v>
+        <v>17.7896</v>
       </c>
       <c r="H55">
-        <v>1.00985</v>
+        <v>21.6902</v>
       </c>
       <c r="I55">
-        <v>0.190126</v>
+        <v>7.64387</v>
       </c>
       <c r="J55">
-        <v>0.360562</v>
+        <v>2.26912</v>
       </c>
       <c r="K55">
-        <v>0.43909</v>
+        <v>2.31844</v>
       </c>
       <c r="L55">
-        <v>5.21764</v>
+        <v>53.23</v>
       </c>
       <c r="M55">
-        <v>6.09388</v>
+        <v>41.5274</v>
       </c>
       <c r="N55">
-        <v>1.60591</v>
+        <v>175.457</v>
       </c>
       <c r="O55">
-        <v>1.88653</v>
+        <v>186.776</v>
       </c>
       <c r="P55">
-        <v>8.68492</v>
+        <v>30.1242</v>
       </c>
       <c r="Q55">
-        <v>4.63715</v>
+        <v>93.1354</v>
       </c>
       <c r="R55">
-        <v>18.0348</v>
+        <v>6.85598</v>
       </c>
       <c r="S55">
-        <v>13.7036</v>
+        <v>12.8536</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>ENSMUSG00000031734</t>
+          <t>ENSMUSG00000031654</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Irx3</t>
+          <t>Cbln1</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>chr8:91798524-91802067</t>
+          <t>chr8:87468404-87472609</t>
         </is>
       </c>
       <c r="D56">
-        <v>7.73396</v>
+        <v>0.400786</v>
       </c>
       <c r="E56">
-        <v>6.3474</v>
+        <v>0.0353266</v>
       </c>
       <c r="F56">
-        <v>2.19513</v>
+        <v>4.24799</v>
       </c>
       <c r="G56">
-        <v>1.15843</v>
+        <v>4.07584</v>
       </c>
       <c r="H56">
-        <v>1.50632</v>
+        <v>4.72716</v>
       </c>
       <c r="I56">
-        <v>1.49326</v>
+        <v>6.11979</v>
       </c>
       <c r="J56">
-        <v>3.02461</v>
+        <v>0.675782</v>
       </c>
       <c r="K56">
-        <v>2.05834</v>
+        <v>0.677748</v>
       </c>
       <c r="L56">
-        <v>25.8736</v>
+        <v>0.631161</v>
       </c>
       <c r="M56">
-        <v>21.8981</v>
+        <v>0.598139</v>
       </c>
       <c r="N56">
-        <v>0.219328</v>
+        <v>26.8589</v>
       </c>
       <c r="O56">
-        <v>0.0695395</v>
+        <v>32.2917</v>
       </c>
       <c r="P56">
-        <v>0.0890816</v>
+        <v>23.6376</v>
       </c>
       <c r="Q56">
-        <v>0.0702863</v>
+        <v>28.1916</v>
       </c>
       <c r="R56">
-        <v>0.327747</v>
+        <v>5.23102</v>
       </c>
       <c r="S56">
-        <v>0.177546</v>
+        <v>11.7938</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>ENSMUSG00000025921</t>
+          <t>ENSMUSG00000001823</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Rdh10</t>
+          <t>Hoxd12</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>chr1:16105773-16133734</t>
+          <t>chr2:74675012-74677705</t>
         </is>
       </c>
       <c r="D57">
-        <v>7.11879</v>
+        <v>0.13436</v>
       </c>
       <c r="E57">
-        <v>7.05941</v>
+        <v>0.0195175</v>
       </c>
       <c r="F57">
-        <v>6.25006</v>
+        <v>6.58722</v>
       </c>
       <c r="G57">
-        <v>6.5247</v>
+        <v>6.42987</v>
       </c>
       <c r="H57">
-        <v>4.31955</v>
+        <v>53.5126</v>
       </c>
       <c r="I57">
-        <v>6.88568</v>
+        <v>5.42501</v>
       </c>
       <c r="J57">
-        <v>3.46052</v>
+        <v>2.3396</v>
       </c>
       <c r="K57">
-        <v>5.83921</v>
+        <v>2.51758</v>
       </c>
       <c r="L57">
-        <v>9.1578</v>
+        <v>0.100048</v>
       </c>
       <c r="M57">
-        <v>10.7221</v>
+        <v>0.118885</v>
       </c>
       <c r="N57">
-        <v>0.9876</v>
+        <v>99.5018</v>
       </c>
       <c r="O57">
-        <v>1.90593</v>
+        <v>116.608</v>
       </c>
       <c r="P57">
-        <v>2.44152</v>
+        <v>198.664</v>
       </c>
       <c r="Q57">
-        <v>3.03451</v>
+        <v>158.933</v>
       </c>
       <c r="R57">
-        <v>10.275</v>
+        <v>84.2936</v>
       </c>
       <c r="S57">
-        <v>5.18367</v>
+        <v>148.835</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>ENSMUSG00000028681</t>
+          <t>ENSMUSG00000027276</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Ptch2</t>
+          <t>Jag1</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>chr4:117096074-117115383</t>
+          <t>chr2:137081455-137116644</t>
         </is>
       </c>
       <c r="D58">
-        <v>0.524454</v>
+        <v>4.32258</v>
       </c>
       <c r="E58">
-        <v>0.259588</v>
+        <v>5.46391</v>
       </c>
       <c r="F58">
-        <v>10.041</v>
+        <v>9.296379999999999</v>
       </c>
       <c r="G58">
-        <v>17.1601</v>
+        <v>17.1005</v>
       </c>
       <c r="H58">
-        <v>6.37908</v>
+        <v>8.307880000000001</v>
       </c>
       <c r="I58">
-        <v>24.6806</v>
+        <v>14.0977</v>
       </c>
       <c r="J58">
-        <v>0.7694800000000001</v>
+        <v>10.5905</v>
       </c>
       <c r="K58">
-        <v>1.27548</v>
+        <v>15.0798</v>
       </c>
       <c r="L58">
-        <v>0.669465</v>
+        <v>1.181</v>
       </c>
       <c r="M58">
-        <v>0.527069</v>
+        <v>1.30622</v>
       </c>
       <c r="N58">
-        <v>5.85146</v>
+        <v>19.1576</v>
       </c>
       <c r="O58">
-        <v>6.64099</v>
+        <v>31.7596</v>
       </c>
       <c r="P58">
-        <v>1.60947</v>
+        <v>10.8616</v>
       </c>
       <c r="Q58">
-        <v>5.65174</v>
+        <v>26.816</v>
       </c>
       <c r="R58">
-        <v>1.17769</v>
+        <v>3.53482</v>
       </c>
       <c r="S58">
-        <v>1.42763</v>
+        <v>9.65067</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>ENSMUSG00000020599</t>
+          <t>ENSMUSG00000057777</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Rgs9</t>
+          <t>Mab21l2</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>chr11:109225354-109298129</t>
+          <t>chr3:86545580-86548283</t>
         </is>
       </c>
       <c r="D59">
-        <v>1.86963</v>
+        <v>1.543</v>
       </c>
       <c r="E59">
-        <v>2.56742</v>
+        <v>0.786778</v>
       </c>
       <c r="F59">
-        <v>1.27324</v>
+        <v>6.64046</v>
       </c>
       <c r="G59">
-        <v>2.01438</v>
+        <v>3.64571</v>
       </c>
       <c r="H59">
-        <v>2.07335</v>
+        <v>3.408</v>
       </c>
       <c r="I59">
-        <v>1.35271</v>
+        <v>2.63787</v>
       </c>
       <c r="J59">
-        <v>0.615852</v>
+        <v>0.205624</v>
       </c>
       <c r="K59">
-        <v>0.572441</v>
+        <v>0.731027</v>
       </c>
       <c r="L59">
-        <v>0.860881</v>
+        <v>2.14383</v>
       </c>
       <c r="M59">
-        <v>0.918651</v>
+        <v>1.70893</v>
       </c>
       <c r="N59">
-        <v>5.97691</v>
+        <v>55.3568</v>
       </c>
       <c r="O59">
-        <v>10.5772</v>
+        <v>36.2601</v>
       </c>
       <c r="P59">
-        <v>4.26211</v>
+        <v>21.3037</v>
       </c>
       <c r="Q59">
-        <v>8.56034</v>
+        <v>32.3737</v>
       </c>
       <c r="R59">
-        <v>1.35118</v>
+        <v>9.627409999999999</v>
       </c>
       <c r="S59">
-        <v>4.42052</v>
+        <v>12.0221</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>ENSMUSG00000000120</t>
+          <t>ENSMUSG00000032394</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Ngfr</t>
+          <t>Igdcc3</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>chr11:95568817-95587735</t>
+          <t>chr9:65141188-65185872</t>
         </is>
       </c>
       <c r="D60">
-        <v>37.5196</v>
+        <v>138.67</v>
       </c>
       <c r="E60">
-        <v>35.5644</v>
+        <v>100.362</v>
       </c>
       <c r="F60">
-        <v>11.0457</v>
+        <v>89.9378</v>
       </c>
       <c r="G60">
-        <v>6.20675</v>
+        <v>51.3037</v>
       </c>
       <c r="H60">
-        <v>24.7859</v>
+        <v>4.42878</v>
       </c>
       <c r="I60">
-        <v>4.5355</v>
+        <v>13.4018</v>
       </c>
       <c r="J60">
-        <v>3.82792</v>
+        <v>0.680704</v>
       </c>
       <c r="K60">
-        <v>2.17895</v>
+        <v>1.88373</v>
       </c>
       <c r="L60">
-        <v>16.2063</v>
+        <v>300.355</v>
       </c>
       <c r="M60">
-        <v>15.5902</v>
+        <v>294.417</v>
       </c>
       <c r="N60">
-        <v>3.61435</v>
+        <v>189.801</v>
       </c>
       <c r="O60">
-        <v>7.14561</v>
+        <v>91.221</v>
       </c>
       <c r="P60">
-        <v>36.1983</v>
+        <v>1.98391</v>
       </c>
       <c r="Q60">
-        <v>23.2819</v>
+        <v>7.50832</v>
       </c>
       <c r="R60">
-        <v>45.3841</v>
+        <v>0.47699</v>
       </c>
       <c r="S60">
-        <v>32.6772</v>
+        <v>0.530118</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>ENSMUSG00000026235</t>
+          <t>ENSMUSG00000027868</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Epha4</t>
+          <t>Tbx15</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>chr1:77367184-77515088</t>
+          <t>chr3:99240380-99354259</t>
         </is>
       </c>
       <c r="D61">
-        <v>13.4318</v>
+        <v>0.983657</v>
       </c>
       <c r="E61">
-        <v>10.8243</v>
+        <v>0.540896</v>
       </c>
       <c r="F61">
-        <v>16.1199</v>
+        <v>3.76041</v>
       </c>
       <c r="G61">
-        <v>23.6185</v>
+        <v>3.92532</v>
       </c>
       <c r="H61">
-        <v>24.6841</v>
+        <v>5.90881</v>
       </c>
       <c r="I61">
-        <v>27.4426</v>
+        <v>1.79184</v>
       </c>
       <c r="J61">
-        <v>25.5778</v>
+        <v>0.21882</v>
       </c>
       <c r="K61">
-        <v>25.9032</v>
+        <v>0.474954</v>
       </c>
       <c r="L61">
-        <v>6.18705</v>
+        <v>10.1463</v>
       </c>
       <c r="M61">
-        <v>7.35583</v>
+        <v>13.1084</v>
       </c>
       <c r="N61">
-        <v>62.2604</v>
+        <v>46.368</v>
       </c>
       <c r="O61">
-        <v>65.9314</v>
+        <v>59.3981</v>
       </c>
       <c r="P61">
-        <v>36.7337</v>
+        <v>21.4808</v>
       </c>
       <c r="Q61">
-        <v>63.7428</v>
+        <v>47.1362</v>
       </c>
       <c r="R61">
-        <v>29.0142</v>
+        <v>3.89055</v>
       </c>
       <c r="S61">
-        <v>39.5568</v>
+        <v>17.5918</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>ENSMUSG00000033207</t>
+          <t>ENSMUSG00000005503</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Mamdc2</t>
+          <t>Evx1</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>chr19:23302608-23448322</t>
+          <t>chr6:52313497-52318378</t>
         </is>
       </c>
       <c r="D62">
-        <v>0.101998</v>
+        <v>0.0295853</v>
       </c>
       <c r="E62">
-        <v>0.0740821</v>
+        <v>0.0515726</v>
       </c>
       <c r="F62">
-        <v>0.230153</v>
+        <v>2.18485</v>
       </c>
       <c r="G62">
-        <v>0.184511</v>
+        <v>2.7674</v>
       </c>
       <c r="H62">
-        <v>0.370072</v>
+        <v>7.41521</v>
       </c>
       <c r="I62">
-        <v>0.119619</v>
+        <v>0.951685</v>
       </c>
       <c r="J62">
-        <v>0.0111005</v>
+        <v>0.675785</v>
       </c>
       <c r="K62">
-        <v>0.0338263</v>
+        <v>0.726063</v>
       </c>
       <c r="L62">
-        <v>0.29295</v>
+        <v>0.17624</v>
       </c>
       <c r="M62">
-        <v>0.421167</v>
+        <v>0.219982</v>
       </c>
       <c r="N62">
-        <v>5.55061</v>
+        <v>23.419</v>
       </c>
       <c r="O62">
-        <v>4.24121</v>
+        <v>20.3562</v>
       </c>
       <c r="P62">
-        <v>0.882288</v>
+        <v>13.5475</v>
       </c>
       <c r="Q62">
-        <v>1.63043</v>
+        <v>17.3058</v>
       </c>
       <c r="R62">
-        <v>0.328943</v>
+        <v>8.805400000000001</v>
       </c>
       <c r="S62">
-        <v>0.711477</v>
+        <v>7.00976</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>ENSMUSG00000031548</t>
+          <t>ENSMUSG00000045636</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Sfrp1</t>
+          <t>Mtus1</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>chr8:23411501-23449632</t>
+          <t>chr8:40990913-41133726</t>
         </is>
       </c>
       <c r="D63">
-        <v>15.4386</v>
+        <v>5.68991</v>
       </c>
       <c r="E63">
-        <v>11.448</v>
+        <v>4.55435</v>
       </c>
       <c r="F63">
-        <v>4.93616</v>
+        <v>9.28781</v>
       </c>
       <c r="G63">
-        <v>3.90603</v>
+        <v>12.6474</v>
       </c>
       <c r="H63">
-        <v>2.15544</v>
+        <v>11.453</v>
       </c>
       <c r="I63">
-        <v>3.26174</v>
+        <v>16.2044</v>
       </c>
       <c r="J63">
-        <v>3.8223</v>
+        <v>11.1706</v>
       </c>
       <c r="K63">
-        <v>4.54542</v>
+        <v>17.1813</v>
       </c>
       <c r="L63">
-        <v>22.1843</v>
+        <v>0.716507</v>
       </c>
       <c r="M63">
-        <v>19.0179</v>
+        <v>0.564142</v>
       </c>
       <c r="N63">
-        <v>1.96138</v>
+        <v>10.3215</v>
       </c>
       <c r="O63">
-        <v>1.75745</v>
+        <v>10.0518</v>
       </c>
       <c r="P63">
-        <v>2.61472</v>
+        <v>2.67215</v>
       </c>
       <c r="Q63">
-        <v>2.43371</v>
+        <v>6.75541</v>
       </c>
       <c r="R63">
-        <v>6.40423</v>
+        <v>1.28891</v>
       </c>
       <c r="S63">
-        <v>3.73622</v>
+        <v>1.31723</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>ENSMUSG00000048332</t>
+          <t>ENSMUSG00000038210</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Lhfp</t>
+          <t>Hoxa11</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>chr3:53041527-53261679</t>
+          <t>chr6:52242105-52245810</t>
         </is>
       </c>
       <c r="D64">
-        <v>2.4227</v>
+        <v>0.595484</v>
       </c>
       <c r="E64">
-        <v>2.47175</v>
+        <v>0.670387</v>
       </c>
       <c r="F64">
-        <v>1.47545</v>
+        <v>8.15372</v>
       </c>
       <c r="G64">
-        <v>2.15314</v>
+        <v>5.94916</v>
       </c>
       <c r="H64">
-        <v>5.82658</v>
+        <v>2.39205</v>
       </c>
       <c r="I64">
-        <v>3.64868</v>
+        <v>1.59626</v>
       </c>
       <c r="J64">
-        <v>4.95692</v>
+        <v>0.226825</v>
       </c>
       <c r="K64">
-        <v>3.95388</v>
+        <v>0.0987427</v>
       </c>
       <c r="L64">
-        <v>9.72593</v>
+        <v>17.198</v>
       </c>
       <c r="M64">
-        <v>8.717930000000001</v>
+        <v>11.3722</v>
       </c>
       <c r="N64">
-        <v>2.49457</v>
+        <v>71.2531</v>
       </c>
       <c r="O64">
-        <v>3.33396</v>
+        <v>41.242</v>
       </c>
       <c r="P64">
-        <v>6.12149</v>
+        <v>8.40424</v>
       </c>
       <c r="Q64">
-        <v>5.67529</v>
+        <v>18.182</v>
       </c>
       <c r="R64">
-        <v>22.2937</v>
+        <v>4.8171</v>
       </c>
       <c r="S64">
-        <v>13.1425</v>
+        <v>6.35728</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>ENSMUSG00000028332</t>
+          <t>ENSMUSG00000063415</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Hemgn</t>
+          <t>Cyp26b1</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>chr4:46393988-46413506</t>
+          <t>chr6:84571413-84593908</t>
         </is>
       </c>
       <c r="D65">
-        <v>0.183342</v>
+        <v>79.20910000000001</v>
       </c>
       <c r="E65">
-        <v>0.942017</v>
+        <v>67.67619999999999</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>75.29940000000001</v>
       </c>
       <c r="G65">
-        <v>0.361839</v>
+        <v>64.9118</v>
       </c>
       <c r="H65">
-        <v>0.0151984</v>
+        <v>51.6961</v>
       </c>
       <c r="I65">
-        <v>0.0245623</v>
+        <v>30.9712</v>
       </c>
       <c r="J65">
-        <v>0.0319196</v>
+        <v>7.01504</v>
       </c>
       <c r="K65">
-        <v>0</v>
+        <v>6.61854</v>
       </c>
       <c r="L65">
-        <v>3.1055</v>
+        <v>5.09486</v>
       </c>
       <c r="M65">
-        <v>2.91099</v>
+        <v>4.49428</v>
       </c>
       <c r="N65">
-        <v>4.30047</v>
+        <v>173.917</v>
       </c>
       <c r="O65">
-        <v>7.56116</v>
+        <v>166.231</v>
       </c>
       <c r="P65">
-        <v>2.28732</v>
+        <v>95.83459999999999</v>
       </c>
       <c r="Q65">
-        <v>6.18499</v>
+        <v>134.194</v>
       </c>
       <c r="R65">
-        <v>0.0946063</v>
+        <v>114.246</v>
       </c>
       <c r="S65">
-        <v>0.6738189999999999</v>
+        <v>100.693</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>ENSMUSG00000042607</t>
+          <t>ENSMUSG00000042499</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Asb4</t>
+          <t>Hoxd11</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>chr6:5383385-5433022</t>
+          <t>chr2:74682322-74684168</t>
         </is>
       </c>
       <c r="D66">
-        <v>23.7054</v>
+        <v>0.153226</v>
       </c>
       <c r="E66">
-        <v>21.9741</v>
+        <v>0.0890319</v>
       </c>
       <c r="F66">
-        <v>17.4596</v>
+        <v>7.48073</v>
       </c>
       <c r="G66">
-        <v>29.2858</v>
+        <v>3.22539</v>
       </c>
       <c r="H66">
-        <v>31.3117</v>
+        <v>16.4241</v>
       </c>
       <c r="I66">
-        <v>9.49578</v>
+        <v>2.77249</v>
       </c>
       <c r="J66">
-        <v>1.06369</v>
+        <v>0.433569</v>
       </c>
       <c r="K66">
-        <v>1.87198</v>
+        <v>0.6606030000000001</v>
       </c>
       <c r="L66">
-        <v>155.561</v>
+        <v>2.83609</v>
       </c>
       <c r="M66">
-        <v>160.526</v>
+        <v>1.44617</v>
       </c>
       <c r="N66">
-        <v>300.696</v>
+        <v>65.3913</v>
       </c>
       <c r="O66">
-        <v>231.324</v>
+        <v>48.0302</v>
       </c>
       <c r="P66">
-        <v>101.947</v>
+        <v>44.2968</v>
       </c>
       <c r="Q66">
-        <v>142.754</v>
+        <v>42.3815</v>
       </c>
       <c r="R66">
-        <v>29.7138</v>
+        <v>20.6227</v>
       </c>
       <c r="S66">
-        <v>56.6617</v>
+        <v>38.7381</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>ENSMUSG00000028626</t>
+          <t>ENSMUSG00000025407</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Col9a2</t>
+          <t>Gli1</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>chr4:121039384-121055322</t>
+          <t>chr10:127329881-127341974</t>
         </is>
       </c>
       <c r="D67">
-        <v>1.04795</v>
+        <v>0.305053</v>
       </c>
       <c r="E67">
-        <v>0.490513</v>
+        <v>0.182859</v>
       </c>
       <c r="F67">
-        <v>0.573251</v>
+        <v>5.81968</v>
       </c>
       <c r="G67">
-        <v>0.440419</v>
+        <v>12.2123</v>
       </c>
       <c r="H67">
-        <v>0.615599</v>
+        <v>7.22751</v>
       </c>
       <c r="I67">
-        <v>0.312128</v>
+        <v>14.1718</v>
       </c>
       <c r="J67">
-        <v>0.570248</v>
+        <v>0.536633</v>
       </c>
       <c r="K67">
-        <v>0.347541</v>
+        <v>1.28025</v>
       </c>
       <c r="L67">
-        <v>0.0867034</v>
+        <v>0.705241</v>
       </c>
       <c r="M67">
-        <v>0.0343427</v>
+        <v>0.668299</v>
       </c>
       <c r="N67">
-        <v>0.192307</v>
+        <v>9.655469999999999</v>
       </c>
       <c r="O67">
-        <v>0.0620732</v>
+        <v>18.6634</v>
       </c>
       <c r="P67">
-        <v>1.27226</v>
+        <v>12.0866</v>
       </c>
       <c r="Q67">
-        <v>0.397352</v>
+        <v>18.5722</v>
       </c>
       <c r="R67">
-        <v>9.37541</v>
+        <v>4.20404</v>
       </c>
       <c r="S67">
-        <v>7.44859</v>
+        <v>4.00502</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>ENSMUSG00000027525</t>
+          <t>ENSMUSG00000074934</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Phactr3</t>
+          <t>Grem1</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>chr2:178118974-178338492</t>
+          <t>chr2:113746163-113758646</t>
         </is>
       </c>
       <c r="D68">
-        <v>0.832849</v>
+        <v>0.513</v>
       </c>
       <c r="E68">
-        <v>0.6089909999999999</v>
+        <v>0.8942369999999999</v>
       </c>
       <c r="F68">
-        <v>1.13071</v>
+        <v>3.63685</v>
       </c>
       <c r="G68">
-        <v>0.880657</v>
+        <v>1.93025</v>
       </c>
       <c r="H68">
-        <v>0.715636</v>
+        <v>0.850876</v>
       </c>
       <c r="I68">
-        <v>0.237469</v>
+        <v>4.8818</v>
       </c>
       <c r="J68">
-        <v>0.070105</v>
+        <v>0.0357314</v>
       </c>
       <c r="K68">
-        <v>0.0427126</v>
+        <v>0.108884</v>
       </c>
       <c r="L68">
-        <v>1.26452</v>
+        <v>4.81965</v>
       </c>
       <c r="M68">
-        <v>1.11338</v>
+        <v>6.29429</v>
       </c>
       <c r="N68">
-        <v>8.46542</v>
+        <v>12.1733</v>
       </c>
       <c r="O68">
-        <v>4.51866</v>
+        <v>11.2892</v>
       </c>
       <c r="P68">
-        <v>1.83006</v>
+        <v>2.92408</v>
       </c>
       <c r="Q68">
-        <v>2.27601</v>
+        <v>13.666</v>
       </c>
       <c r="R68">
-        <v>0.493729</v>
+        <v>0.441181</v>
       </c>
       <c r="S68">
-        <v>0.670024</v>
+        <v>1.27077</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>ENSMUSG00000019880</t>
+          <t>ENSMUSG00000001819</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Rspo3</t>
+          <t>Hoxd13</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>chr10:29452415-29535867</t>
+          <t>chr2:74668309-74671599</t>
         </is>
       </c>
       <c r="D69">
-        <v>0.165544</v>
+        <v>0.342799</v>
       </c>
       <c r="E69">
-        <v>0.128252</v>
+        <v>0.298775</v>
       </c>
       <c r="F69">
-        <v>0.580379</v>
+        <v>6.94754</v>
       </c>
       <c r="G69">
-        <v>0.490032</v>
+        <v>12.267</v>
       </c>
       <c r="H69">
-        <v>0.9953379999999999</v>
+        <v>94.6536</v>
       </c>
       <c r="I69">
-        <v>0.591731</v>
+        <v>13.1634</v>
       </c>
       <c r="J69">
-        <v>1.34522</v>
+        <v>5.61099</v>
       </c>
       <c r="K69">
-        <v>1.11631</v>
+        <v>8.66283</v>
       </c>
       <c r="L69">
-        <v>0.739607</v>
+        <v>3.07766</v>
       </c>
       <c r="M69">
-        <v>0.423172</v>
+        <v>2.70963</v>
       </c>
       <c r="N69">
-        <v>4.56588</v>
+        <v>129.298</v>
       </c>
       <c r="O69">
-        <v>4.90503</v>
+        <v>265.053</v>
       </c>
       <c r="P69">
-        <v>5.65539</v>
+        <v>318.03</v>
       </c>
       <c r="Q69">
-        <v>6.77911</v>
+        <v>376.63</v>
       </c>
       <c r="R69">
-        <v>0.344057</v>
+        <v>202.223</v>
       </c>
       <c r="S69">
-        <v>3.361</v>
+        <v>395.838</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>ENSMUSG00000069171</t>
+          <t>ENSMUSG00000040289</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Nr2f1</t>
+          <t>Hey1</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>chr13:78188972-78199757</t>
+          <t>chr3:8663358-8667256</t>
         </is>
       </c>
       <c r="D70">
-        <v>1.73243</v>
+        <v>3.26697</v>
       </c>
       <c r="E70">
-        <v>3.84735</v>
+        <v>3.26585</v>
       </c>
       <c r="F70">
-        <v>0.624754</v>
+        <v>5.67837</v>
       </c>
       <c r="G70">
-        <v>0.413743</v>
+        <v>6.3547</v>
       </c>
       <c r="H70">
-        <v>1.028</v>
+        <v>15.1199</v>
       </c>
       <c r="I70">
-        <v>0.10672</v>
+        <v>6.82707</v>
       </c>
       <c r="J70">
-        <v>0.0458507</v>
+        <v>4.64888</v>
       </c>
       <c r="K70">
-        <v>0.0880688</v>
+        <v>4.61342</v>
       </c>
       <c r="L70">
-        <v>16.0086</v>
+        <v>8.370469999999999</v>
       </c>
       <c r="M70">
-        <v>17.5865</v>
+        <v>7.06615</v>
       </c>
       <c r="N70">
-        <v>0.483995</v>
+        <v>53.5269</v>
       </c>
       <c r="O70">
-        <v>0.86299</v>
+        <v>62.7479</v>
       </c>
       <c r="P70">
-        <v>2.98413</v>
+        <v>34.5768</v>
       </c>
       <c r="Q70">
-        <v>1.19145</v>
+        <v>56.6581</v>
       </c>
       <c r="R70">
-        <v>1.43262</v>
+        <v>12.2203</v>
       </c>
       <c r="S70">
-        <v>3.12712</v>
+        <v>27.0379</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>ENSMUSG00000023991</t>
+          <t>ENSMUSG00000038203</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Foxp4</t>
+          <t>Hoxa13</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>chr17:47867132-47924645</t>
+          <t>chr6:52257693-52260880</t>
         </is>
       </c>
       <c r="D71">
-        <v>50.0793</v>
+        <v>0</v>
       </c>
       <c r="E71">
-        <v>40.837</v>
+        <v>0.0206502</v>
       </c>
       <c r="F71">
-        <v>45.5378</v>
+        <v>1.83716</v>
       </c>
       <c r="G71">
-        <v>33.6097</v>
+        <v>5.49464</v>
       </c>
       <c r="H71">
-        <v>42.6407</v>
+        <v>23.3035</v>
       </c>
       <c r="I71">
-        <v>38.8294</v>
+        <v>5.0359</v>
       </c>
       <c r="J71">
-        <v>48.2234</v>
+        <v>2.65795</v>
       </c>
       <c r="K71">
-        <v>37.4826</v>
+        <v>2.13435</v>
       </c>
       <c r="L71">
-        <v>28.2273</v>
+        <v>0.181465</v>
       </c>
       <c r="M71">
-        <v>25.9305</v>
+        <v>0.104821</v>
       </c>
       <c r="N71">
-        <v>11.2559</v>
+        <v>60.7114</v>
       </c>
       <c r="O71">
-        <v>9.99588</v>
+        <v>75.9161</v>
       </c>
       <c r="P71">
-        <v>30.4163</v>
+        <v>73.99639999999999</v>
       </c>
       <c r="Q71">
-        <v>14.327</v>
+        <v>86.5534</v>
       </c>
       <c r="R71">
-        <v>64.072</v>
+        <v>95.3287</v>
       </c>
       <c r="S71">
-        <v>32.5141</v>
+        <v>82.1747</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>ENSMUSG00000054640</t>
+          <t>ENSMUSG00000035245</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Slc8a1</t>
+          <t>Eogt</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>chr17:81388690-81649607</t>
+          <t>chr6:97110023-97149182</t>
         </is>
       </c>
       <c r="D72">
-        <v>2.01175</v>
+        <v>2.62498</v>
       </c>
       <c r="E72">
-        <v>1.87375</v>
+        <v>2.84295</v>
       </c>
       <c r="F72">
-        <v>0.825334</v>
+        <v>11.4923</v>
       </c>
       <c r="G72">
-        <v>0.89521</v>
+        <v>20.838</v>
       </c>
       <c r="H72">
-        <v>2.26952</v>
+        <v>19.6863</v>
       </c>
       <c r="I72">
-        <v>1.44733</v>
+        <v>28.8525</v>
       </c>
       <c r="J72">
-        <v>0.7727309999999999</v>
+        <v>21.0253</v>
       </c>
       <c r="K72">
-        <v>0.647549</v>
+        <v>31.8366</v>
       </c>
       <c r="L72">
-        <v>5.72778</v>
+        <v>6.20459</v>
       </c>
       <c r="M72">
-        <v>6.26522</v>
+        <v>7.69932</v>
       </c>
       <c r="N72">
-        <v>1.64175</v>
+        <v>29.7445</v>
       </c>
       <c r="O72">
-        <v>1.8926</v>
+        <v>34.9032</v>
       </c>
       <c r="P72">
-        <v>5.61665</v>
+        <v>10.3876</v>
       </c>
       <c r="Q72">
-        <v>3.20946</v>
+        <v>20.652</v>
       </c>
       <c r="R72">
-        <v>12.7599</v>
+        <v>3.89263</v>
       </c>
       <c r="S72">
-        <v>10.3688</v>
+        <v>8.79627</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>ENSMUSG00000062393</t>
+          <t>ENSMUSG00000024827</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Dgkk</t>
+          <t>Gldc</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>chrX:6779305-6948363</t>
+          <t>chr19:30098448-30175418</t>
         </is>
       </c>
       <c r="D73">
-        <v>6.80972</v>
+        <v>15.214</v>
       </c>
       <c r="E73">
-        <v>7.94882</v>
+        <v>13.8596</v>
       </c>
       <c r="F73">
-        <v>2.40125</v>
+        <v>13.0789</v>
       </c>
       <c r="G73">
-        <v>2.7252</v>
+        <v>13.0655</v>
       </c>
       <c r="H73">
-        <v>1.03097</v>
+        <v>11.5924</v>
       </c>
       <c r="I73">
-        <v>0.967936</v>
+        <v>12.9308</v>
       </c>
       <c r="J73">
-        <v>0.179106</v>
+        <v>8.152939999999999</v>
       </c>
       <c r="K73">
-        <v>0.256851</v>
+        <v>8.512040000000001</v>
       </c>
       <c r="L73">
-        <v>0.5314950000000001</v>
+        <v>11.4325</v>
       </c>
       <c r="M73">
-        <v>0.5061870000000001</v>
+        <v>13.2544</v>
       </c>
       <c r="N73">
-        <v>3.83515</v>
+        <v>35.8218</v>
       </c>
       <c r="O73">
-        <v>6.24272</v>
+        <v>24.0133</v>
       </c>
       <c r="P73">
-        <v>2.7419</v>
+        <v>7.52517</v>
       </c>
       <c r="Q73">
-        <v>4.66682</v>
+        <v>10.6533</v>
       </c>
       <c r="R73">
-        <v>0.721266</v>
+        <v>1.84269</v>
       </c>
       <c r="S73">
-        <v>1.54343</v>
+        <v>2.80828</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>ENSMUSG00000032332</t>
+          <t>ENSMUSG00000024565</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Col12a1</t>
+          <t>Sall3</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>chr9:79598990-79718720</t>
+          <t>chr18:80966375-80986578</t>
         </is>
       </c>
       <c r="D74">
-        <v>0.0593424</v>
+        <v>2.64523</v>
       </c>
       <c r="E74">
-        <v>0.225953</v>
+        <v>2.09005</v>
       </c>
       <c r="F74">
-        <v>0.276067</v>
+        <v>8.266120000000001</v>
       </c>
       <c r="G74">
-        <v>0.209157</v>
+        <v>7.09031</v>
       </c>
       <c r="H74">
-        <v>0.44763</v>
+        <v>2.02971</v>
       </c>
       <c r="I74">
-        <v>0.672616</v>
+        <v>3.99273</v>
       </c>
       <c r="J74">
-        <v>1.76412</v>
+        <v>0.672623</v>
       </c>
       <c r="K74">
-        <v>0.686642</v>
+        <v>0.885458</v>
       </c>
       <c r="L74">
-        <v>0.856289</v>
+        <v>5.99063</v>
       </c>
       <c r="M74">
-        <v>0.577882</v>
+        <v>10.4487</v>
       </c>
       <c r="N74">
-        <v>0.7547199999999999</v>
+        <v>27.0823</v>
       </c>
       <c r="O74">
-        <v>0.332929</v>
+        <v>17.2558</v>
       </c>
       <c r="P74">
-        <v>0.642425</v>
+        <v>3.72541</v>
       </c>
       <c r="Q74">
-        <v>0.143434</v>
+        <v>5.78114</v>
       </c>
       <c r="R74">
-        <v>12.8952</v>
+        <v>1.24375</v>
       </c>
       <c r="S74">
-        <v>3.06165</v>
+        <v>1.43844</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>ENSMUSG00000027994</t>
+          <t>ENSMUSG00000036523</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Mcub</t>
+          <t>Greb1</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>chr3:129914959-129970206</t>
+          <t>chr12:16670614-16800886</t>
         </is>
       </c>
       <c r="D75">
-        <v>0.0846922</v>
+        <v>8.58962</v>
       </c>
       <c r="E75">
-        <v>0.0492106</v>
+        <v>11.5313</v>
       </c>
       <c r="F75">
-        <v>0.921367</v>
+        <v>10.8644</v>
       </c>
       <c r="G75">
-        <v>1.95699</v>
+        <v>16.4352</v>
       </c>
       <c r="H75">
-        <v>6.32474</v>
+        <v>14.9771</v>
       </c>
       <c r="I75">
-        <v>0.477059</v>
+        <v>16.587</v>
       </c>
       <c r="J75">
-        <v>0.885473</v>
+        <v>8.22687</v>
       </c>
       <c r="K75">
-        <v>0.724548</v>
+        <v>11.9855</v>
       </c>
       <c r="L75">
-        <v>0.796894</v>
+        <v>4.55163</v>
       </c>
       <c r="M75">
-        <v>0.636585</v>
+        <v>7.05498</v>
       </c>
       <c r="N75">
-        <v>21.0975</v>
+        <v>22.9625</v>
       </c>
       <c r="O75">
-        <v>16.3992</v>
+        <v>27.4367</v>
       </c>
       <c r="P75">
-        <v>17.3807</v>
+        <v>10.5461</v>
       </c>
       <c r="Q75">
-        <v>16.6045</v>
+        <v>23.0952</v>
       </c>
       <c r="R75">
-        <v>11.6386</v>
+        <v>3.13165</v>
       </c>
       <c r="S75">
-        <v>12.7892</v>
+        <v>8.79299</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>ENSMUSG00000021466</t>
+          <t>ENSMUSG00000032246</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Ptch1</t>
+          <t>Calml4</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>chr13:63508327-63573598</t>
+          <t>chr9:62858079-62875921</t>
         </is>
       </c>
       <c r="D76">
-        <v>6.69799</v>
+        <v>0.8854340000000001</v>
       </c>
       <c r="E76">
-        <v>8.038729999999999</v>
+        <v>1.68356</v>
       </c>
       <c r="F76">
-        <v>26.2511</v>
+        <v>2.0827</v>
       </c>
       <c r="G76">
-        <v>35.9676</v>
+        <v>1.62828</v>
       </c>
       <c r="H76">
-        <v>12.6294</v>
+        <v>1.05898</v>
       </c>
       <c r="I76">
-        <v>44.4725</v>
+        <v>0.408009</v>
       </c>
       <c r="J76">
-        <v>5.83416</v>
+        <v>0.37363</v>
       </c>
       <c r="K76">
-        <v>8.14517</v>
+        <v>0.161523</v>
       </c>
       <c r="L76">
-        <v>3.70766</v>
+        <v>0.378358</v>
       </c>
       <c r="M76">
-        <v>5.65385</v>
+        <v>0.668698</v>
       </c>
       <c r="N76">
-        <v>16.5771</v>
+        <v>5.2537</v>
       </c>
       <c r="O76">
-        <v>22.9063</v>
+        <v>5.17951</v>
       </c>
       <c r="P76">
-        <v>8.793990000000001</v>
+        <v>3.84577</v>
       </c>
       <c r="Q76">
-        <v>22.1799</v>
+        <v>5.67088</v>
       </c>
       <c r="R76">
-        <v>5.30486</v>
+        <v>0.261792</v>
       </c>
       <c r="S76">
-        <v>8.706160000000001</v>
+        <v>0.793902</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>ENSMUSG00000028640</t>
+          <t>ENSMUSG00000048582</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Tfap2c</t>
+          <t>Gja3</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>chr2:172549592-172558622</t>
+          <t>chr14:57034459-57058100</t>
         </is>
       </c>
       <c r="D77">
-        <v>10.588</v>
+        <v>0.153863</v>
       </c>
       <c r="E77">
-        <v>10.4205</v>
+        <v>0.286087</v>
       </c>
       <c r="F77">
-        <v>13.6024</v>
+        <v>1.39425</v>
       </c>
       <c r="G77">
-        <v>13.4909</v>
+        <v>1.55867</v>
       </c>
       <c r="H77">
-        <v>9.80434</v>
+        <v>8.635870000000001</v>
       </c>
       <c r="I77">
-        <v>10.4391</v>
+        <v>1.85064</v>
       </c>
       <c r="J77">
-        <v>11.1102</v>
+        <v>0.90744</v>
       </c>
       <c r="K77">
-        <v>11.7364</v>
+        <v>0.755198</v>
       </c>
       <c r="L77">
-        <v>19.3426</v>
+        <v>1.04409</v>
       </c>
       <c r="M77">
-        <v>24.334</v>
+        <v>0.962069</v>
       </c>
       <c r="N77">
-        <v>25.8436</v>
+        <v>12.4082</v>
       </c>
       <c r="O77">
-        <v>24.6773</v>
+        <v>17.8113</v>
       </c>
       <c r="P77">
-        <v>4.80538</v>
+        <v>19.8838</v>
       </c>
       <c r="Q77">
-        <v>9.77638</v>
+        <v>23.9842</v>
       </c>
       <c r="R77">
-        <v>1.423</v>
+        <v>4.12389</v>
       </c>
       <c r="S77">
-        <v>3.78275</v>
+        <v>11.1538</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>ENSMUSG00000045608</t>
+          <t>ENSMUSG00000067860</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Dbx2</t>
+          <t>Zic3</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>chr15:95623562-95655960</t>
+          <t>chrX:58022699-58041736</t>
         </is>
       </c>
       <c r="D78">
-        <v>0</v>
+        <v>0.043627</v>
       </c>
       <c r="E78">
-        <v>0.014294</v>
+        <v>0.0331923</v>
       </c>
       <c r="F78">
-        <v>0</v>
+        <v>1.02628</v>
       </c>
       <c r="G78">
-        <v>0</v>
+        <v>3.23905</v>
       </c>
       <c r="H78">
-        <v>0.357024</v>
+        <v>7.82111</v>
       </c>
       <c r="I78">
-        <v>0.016486</v>
+        <v>1.09779</v>
       </c>
       <c r="J78">
-        <v>0.439072</v>
+        <v>0.657188</v>
       </c>
       <c r="K78">
-        <v>0.0163168</v>
+        <v>0.84209</v>
       </c>
       <c r="L78">
-        <v>0</v>
+        <v>0.499631</v>
       </c>
       <c r="M78">
-        <v>0</v>
+        <v>0.5848719999999999</v>
       </c>
       <c r="N78">
-        <v>0.0325032</v>
+        <v>25.8134</v>
       </c>
       <c r="O78">
-        <v>0</v>
+        <v>23.8183</v>
       </c>
       <c r="P78">
-        <v>1.04157</v>
+        <v>15.7473</v>
       </c>
       <c r="Q78">
-        <v>0.335797</v>
+        <v>24.6389</v>
       </c>
       <c r="R78">
-        <v>10.4935</v>
+        <v>13.4268</v>
       </c>
       <c r="S78">
-        <v>2.26007</v>
+        <v>16.3146</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>ENSMUSG00000039239</t>
+          <t>ENSMUSG00000031891</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Tgfb2</t>
+          <t>Hsd11b2</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>chr1:186622791-186705989</t>
+          <t>chr8:105518754-105523988</t>
         </is>
       </c>
       <c r="D79">
-        <v>6.21414</v>
+        <v>5.87492</v>
       </c>
       <c r="E79">
-        <v>4.506</v>
+        <v>2.63414</v>
       </c>
       <c r="F79">
-        <v>11.8616</v>
+        <v>4.44098</v>
       </c>
       <c r="G79">
-        <v>14.1138</v>
+        <v>3.56028</v>
       </c>
       <c r="H79">
-        <v>11.5001</v>
+        <v>3.04989</v>
       </c>
       <c r="I79">
-        <v>16.2959</v>
+        <v>1.98405</v>
       </c>
       <c r="J79">
-        <v>8.843870000000001</v>
+        <v>0.463168</v>
       </c>
       <c r="K79">
-        <v>11.6262</v>
+        <v>0.521606</v>
       </c>
       <c r="L79">
-        <v>11.2162</v>
+        <v>14.2507</v>
       </c>
       <c r="M79">
-        <v>11.9397</v>
+        <v>10.9696</v>
       </c>
       <c r="N79">
-        <v>2.55191</v>
+        <v>69.5547</v>
       </c>
       <c r="O79">
-        <v>2.10639</v>
+        <v>44.0931</v>
       </c>
       <c r="P79">
-        <v>4.18427</v>
+        <v>15.3951</v>
       </c>
       <c r="Q79">
-        <v>2.20438</v>
+        <v>19.3421</v>
       </c>
       <c r="R79">
-        <v>7.73473</v>
+        <v>7.93672</v>
       </c>
       <c r="S79">
-        <v>9.15795</v>
+        <v>9.00351</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>ENSMUSG00000001506</t>
+          <t>ENSMUSG00000031665</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Col1a1</t>
+          <t>Sall1</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>chr11:94936223-94953042</t>
+          <t>chr8:89027234-89044162</t>
         </is>
       </c>
       <c r="D80">
-        <v>19.7075</v>
+        <v>24.0559</v>
       </c>
       <c r="E80">
-        <v>7.65628</v>
+        <v>29.6743</v>
       </c>
       <c r="F80">
-        <v>6.70144</v>
+        <v>30.616</v>
       </c>
       <c r="G80">
-        <v>3.88064</v>
+        <v>34.8068</v>
       </c>
       <c r="H80">
-        <v>13.1357</v>
+        <v>26.0434</v>
       </c>
       <c r="I80">
-        <v>5.30975</v>
+        <v>34.474</v>
       </c>
       <c r="J80">
-        <v>8.46668</v>
+        <v>14.1809</v>
       </c>
       <c r="K80">
-        <v>4.72213</v>
+        <v>19.9661</v>
       </c>
       <c r="L80">
-        <v>18.3041</v>
+        <v>4.47127</v>
       </c>
       <c r="M80">
-        <v>12.4464</v>
+        <v>8.620889999999999</v>
       </c>
       <c r="N80">
-        <v>14.3611</v>
+        <v>67.6688</v>
       </c>
       <c r="O80">
-        <v>9.62093</v>
+        <v>60.3168</v>
       </c>
       <c r="P80">
-        <v>37.3591</v>
+        <v>15.1398</v>
       </c>
       <c r="Q80">
-        <v>16.2208</v>
+        <v>31.545</v>
       </c>
       <c r="R80">
-        <v>122.979</v>
+        <v>21.6961</v>
       </c>
       <c r="S80">
-        <v>30.0271</v>
+        <v>15.9417</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>ENSMUSG00000006362</t>
+          <t>ENSMUSG00000052217</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Cbfa2t3</t>
+          <t>Hbb-bh1</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>chr8:122625140-122699109</t>
+          <t>chr7:103841636-103843164</t>
         </is>
       </c>
       <c r="D81">
-        <v>0.196597</v>
+        <v>33.047</v>
       </c>
       <c r="E81">
-        <v>0.25545</v>
+        <v>240.348</v>
       </c>
       <c r="F81">
-        <v>0.775929</v>
+        <v>22.217</v>
       </c>
       <c r="G81">
-        <v>0.670631</v>
+        <v>54.5293</v>
       </c>
       <c r="H81">
-        <v>2.5892</v>
+        <v>1.78487</v>
       </c>
       <c r="I81">
-        <v>0.619198</v>
+        <v>4.55959</v>
       </c>
       <c r="J81">
-        <v>0.121539</v>
+        <v>1.99472</v>
       </c>
       <c r="K81">
-        <v>0.251164</v>
+        <v>0.644687</v>
       </c>
       <c r="L81">
-        <v>1.87421</v>
+        <v>1259.15</v>
       </c>
       <c r="M81">
-        <v>1.98405</v>
+        <v>836.026</v>
       </c>
       <c r="N81">
-        <v>10.3626</v>
+        <v>1328.48</v>
       </c>
       <c r="O81">
-        <v>13.2152</v>
+        <v>1041.84</v>
       </c>
       <c r="P81">
-        <v>6.33664</v>
+        <v>400.596</v>
       </c>
       <c r="Q81">
-        <v>10.0988</v>
+        <v>513.7430000000001</v>
       </c>
       <c r="R81">
-        <v>3.04722</v>
+        <v>70.0363</v>
       </c>
       <c r="S81">
-        <v>5.97432</v>
+        <v>151.851</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>ENSMUSG00000027832</t>
+          <t>ENSMUSG00000032698</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Ptx3</t>
+          <t>Lmo2</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>chr3:66219909-66225805</t>
+          <t>chr2:103957985-103981878</t>
         </is>
       </c>
       <c r="D82">
-        <v>0.493302</v>
+        <v>1.14692</v>
       </c>
       <c r="E82">
-        <v>0.599324</v>
+        <v>0.668197</v>
       </c>
       <c r="F82">
-        <v>0.147189</v>
+        <v>4.97219</v>
       </c>
       <c r="G82">
-        <v>0.294998</v>
+        <v>8.31842</v>
       </c>
       <c r="H82">
-        <v>0.0371911</v>
+        <v>18.8665</v>
       </c>
       <c r="I82">
-        <v>0.0901603</v>
+        <v>6.30911</v>
       </c>
       <c r="J82">
-        <v>0.488059</v>
+        <v>5.52524</v>
       </c>
       <c r="K82">
-        <v>0.446176</v>
+        <v>2.80618</v>
       </c>
       <c r="L82">
-        <v>2.15624</v>
+        <v>15.3303</v>
       </c>
       <c r="M82">
-        <v>2.46019</v>
+        <v>15.1868</v>
       </c>
       <c r="N82">
-        <v>0.62215</v>
+        <v>76.9654</v>
       </c>
       <c r="O82">
-        <v>0.382512</v>
+        <v>87.8622</v>
       </c>
       <c r="P82">
-        <v>0.592086</v>
+        <v>36.2739</v>
       </c>
       <c r="Q82">
-        <v>0.322183</v>
+        <v>54.0035</v>
       </c>
       <c r="R82">
-        <v>7.26994</v>
+        <v>19.3811</v>
       </c>
       <c r="S82">
-        <v>1.55646</v>
+        <v>23.7123</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>ENSMUSG00000021943</t>
+          <t>ENSMUSG00000029413</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Gdf10</t>
+          <t>Naaa</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>chr14:33923586-33937983</t>
+          <t>chr5:92257658-92278170</t>
         </is>
       </c>
       <c r="D83">
-        <v>0.0816862</v>
+        <v>12.7244</v>
       </c>
       <c r="E83">
-        <v>0.10442</v>
+        <v>14.8461</v>
       </c>
       <c r="F83">
-        <v>0.0134052</v>
+        <v>4.66937</v>
       </c>
       <c r="G83">
-        <v>0.0107468</v>
+        <v>3.04485</v>
       </c>
       <c r="H83">
-        <v>1.07035</v>
+        <v>2.97877</v>
       </c>
       <c r="I83">
-        <v>0.0547422</v>
+        <v>2.26734</v>
       </c>
       <c r="J83">
-        <v>0.206248</v>
+        <v>0.617247</v>
       </c>
       <c r="K83">
-        <v>0.205886</v>
+        <v>0.827386</v>
       </c>
       <c r="L83">
-        <v>0.215496</v>
+        <v>2.43538</v>
       </c>
       <c r="M83">
-        <v>0.250563</v>
+        <v>2.50968</v>
       </c>
       <c r="N83">
-        <v>0.280613</v>
+        <v>11.3692</v>
       </c>
       <c r="O83">
-        <v>0.185799</v>
+        <v>16.5985</v>
       </c>
       <c r="P83">
-        <v>4.84945</v>
+        <v>3.82016</v>
       </c>
       <c r="Q83">
-        <v>1.42019</v>
+        <v>6.25381</v>
       </c>
       <c r="R83">
-        <v>11.8231</v>
+        <v>1.7766</v>
       </c>
       <c r="S83">
-        <v>5.54787</v>
+        <v>3.31531</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>ENSMUSG00000021469</t>
+          <t>ENSMUSG00000047786</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Msx2</t>
+          <t>Lix1</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>chr13:53466883-53473074</t>
+          <t>chr17:17402671-17459387</t>
         </is>
       </c>
       <c r="D84">
-        <v>72.4171</v>
+        <v>5.40859</v>
       </c>
       <c r="E84">
-        <v>80.184</v>
+        <v>4.30967</v>
       </c>
       <c r="F84">
-        <v>62.837</v>
+        <v>3.94481</v>
       </c>
       <c r="G84">
-        <v>55.7624</v>
+        <v>5.81083</v>
       </c>
       <c r="H84">
-        <v>78.2864</v>
+        <v>6.83665</v>
       </c>
       <c r="I84">
-        <v>83.1786</v>
+        <v>1.44617</v>
       </c>
       <c r="J84">
-        <v>126.266</v>
+        <v>0.249718</v>
       </c>
       <c r="K84">
-        <v>97.69929999999999</v>
+        <v>0.3986</v>
       </c>
       <c r="L84">
-        <v>11.4572</v>
+        <v>46.3685</v>
       </c>
       <c r="M84">
-        <v>9.783910000000001</v>
+        <v>45.4333</v>
       </c>
       <c r="N84">
-        <v>14.2353</v>
+        <v>55.1203</v>
       </c>
       <c r="O84">
-        <v>9.12566</v>
+        <v>52.045</v>
       </c>
       <c r="P84">
-        <v>46.5233</v>
+        <v>11.0858</v>
       </c>
       <c r="Q84">
-        <v>21.6631</v>
+        <v>26.5114</v>
       </c>
       <c r="R84">
-        <v>120.261</v>
+        <v>3.3476</v>
       </c>
       <c r="S84">
-        <v>70.86499999999999</v>
+        <v>6.70277</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>ENSMUSG00000000690</t>
+          <t>ENSMUSG00000025219</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Hoxb6</t>
+          <t>Fgf8</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>chr11:96292475-96301569</t>
+          <t>chr19:45736797-45742915</t>
         </is>
       </c>
       <c r="D85">
-        <v>4.77372</v>
+        <v>279.809</v>
       </c>
       <c r="E85">
-        <v>3.58135</v>
+        <v>164.964</v>
       </c>
       <c r="F85">
-        <v>0.105739</v>
+        <v>1179.7</v>
       </c>
       <c r="G85">
-        <v>0.296694</v>
+        <v>769.556</v>
       </c>
       <c r="H85">
-        <v>0.0534354</v>
+        <v>153.809</v>
       </c>
       <c r="I85">
-        <v>0.129541</v>
+        <v>346.789</v>
       </c>
       <c r="J85">
-        <v>0</v>
+        <v>49.1851</v>
       </c>
       <c r="K85">
-        <v>0</v>
+        <v>60.9514</v>
       </c>
       <c r="L85">
-        <v>22.8737</v>
+        <v>0.722456</v>
       </c>
       <c r="M85">
-        <v>25.1512</v>
+        <v>0.159388</v>
       </c>
       <c r="N85">
-        <v>0.297966</v>
+        <v>6.80512</v>
       </c>
       <c r="O85">
-        <v>0.183196</v>
+        <v>3.13541</v>
       </c>
       <c r="P85">
-        <v>0.0293342</v>
+        <v>3.33805</v>
       </c>
       <c r="Q85">
-        <v>0.0462903</v>
+        <v>1.67492</v>
       </c>
       <c r="R85">
-        <v>0.0277062</v>
+        <v>0.232383</v>
       </c>
       <c r="S85">
-        <v>0.0876977</v>
+        <v>0.0548465</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>ENSMUSG00000022454</t>
+          <t>ENSMUSG00000004661</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Nell2</t>
+          <t>Arid3b</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>chr15:95075229-95528559</t>
+          <t>chr9:57790352-57836793</t>
         </is>
       </c>
       <c r="D86">
-        <v>4.22113</v>
+        <v>78.70180000000001</v>
       </c>
       <c r="E86">
-        <v>2.74588</v>
+        <v>73.7777</v>
       </c>
       <c r="F86">
-        <v>5.23267</v>
+        <v>80.84</v>
       </c>
       <c r="G86">
-        <v>5.08374</v>
+        <v>60.1862</v>
       </c>
       <c r="H86">
-        <v>5.18168</v>
+        <v>40.9745</v>
       </c>
       <c r="I86">
-        <v>5.14993</v>
+        <v>64.1576</v>
       </c>
       <c r="J86">
-        <v>4.03743</v>
+        <v>21.1062</v>
       </c>
       <c r="K86">
-        <v>3.24596</v>
+        <v>38.5186</v>
       </c>
       <c r="L86">
-        <v>1.18139</v>
+        <v>15.5107</v>
       </c>
       <c r="M86">
-        <v>0.943836</v>
+        <v>17.9882</v>
       </c>
       <c r="N86">
-        <v>0.925719</v>
+        <v>36.8557</v>
       </c>
       <c r="O86">
-        <v>0.544889</v>
+        <v>29.2418</v>
       </c>
       <c r="P86">
-        <v>1.65859</v>
+        <v>9.49301</v>
       </c>
       <c r="Q86">
-        <v>0.8166099999999999</v>
+        <v>14.7616</v>
       </c>
       <c r="R86">
-        <v>13.6001</v>
+        <v>2.6185</v>
       </c>
       <c r="S86">
-        <v>3.36133</v>
+        <v>5.74597</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>ENSMUSG00000025927</t>
+          <t>ENSMUSG00000028681</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Tfap2b</t>
+          <t>Ptch2</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>chr1:19208913-19238576</t>
+          <t>chr4:117096074-117115383</t>
         </is>
       </c>
       <c r="D87">
-        <v>3.87139</v>
+        <v>0.524454</v>
       </c>
       <c r="E87">
-        <v>5.34811</v>
+        <v>0.259588</v>
       </c>
       <c r="F87">
-        <v>12.8015</v>
+        <v>10.041</v>
       </c>
       <c r="G87">
-        <v>18.0286</v>
+        <v>17.1601</v>
       </c>
       <c r="H87">
-        <v>34.4678</v>
+        <v>6.37908</v>
       </c>
       <c r="I87">
-        <v>25.9787</v>
+        <v>24.6806</v>
       </c>
       <c r="J87">
-        <v>78.06959999999999</v>
+        <v>0.7694800000000001</v>
       </c>
       <c r="K87">
-        <v>85.508</v>
+        <v>1.27548</v>
       </c>
       <c r="L87">
-        <v>0.0772258</v>
+        <v>0.669465</v>
       </c>
       <c r="M87">
-        <v>0.0270025</v>
+        <v>0.527069</v>
       </c>
       <c r="N87">
-        <v>23.0888</v>
+        <v>5.85146</v>
       </c>
       <c r="O87">
-        <v>47.6558</v>
+        <v>6.64099</v>
       </c>
       <c r="P87">
-        <v>33.0985</v>
+        <v>1.60947</v>
       </c>
       <c r="Q87">
-        <v>50.4932</v>
+        <v>5.65174</v>
       </c>
       <c r="R87">
-        <v>67.34350000000001</v>
+        <v>1.17769</v>
       </c>
       <c r="S87">
-        <v>53.3115</v>
+        <v>1.42763</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>ENSMUSG00000054196</t>
+          <t>ENSMUSG00000020599</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Cthrc1</t>
+          <t>Rgs9</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>chr15:39076931-39087121</t>
+          <t>chr11:109225354-109298129</t>
         </is>
       </c>
       <c r="D88">
-        <v>4.53021</v>
+        <v>1.86963</v>
       </c>
       <c r="E88">
-        <v>3.78834</v>
+        <v>2.56742</v>
       </c>
       <c r="F88">
-        <v>1.19798</v>
+        <v>1.27324</v>
       </c>
       <c r="G88">
-        <v>2.54506</v>
+        <v>2.01438</v>
       </c>
       <c r="H88">
-        <v>0.823798</v>
+        <v>2.07335</v>
       </c>
       <c r="I88">
-        <v>0.952452</v>
+        <v>1.35271</v>
       </c>
       <c r="J88">
-        <v>1.77959</v>
+        <v>0.615852</v>
       </c>
       <c r="K88">
-        <v>1.1793</v>
+        <v>0.572441</v>
       </c>
       <c r="L88">
-        <v>0.683346</v>
+        <v>0.860881</v>
       </c>
       <c r="M88">
-        <v>0.301429</v>
+        <v>0.918651</v>
       </c>
       <c r="N88">
-        <v>0.241126</v>
+        <v>5.97691</v>
       </c>
       <c r="O88">
-        <v>0.207572</v>
+        <v>10.5772</v>
       </c>
       <c r="P88">
-        <v>1.08577</v>
+        <v>4.26211</v>
       </c>
       <c r="Q88">
-        <v>0.736408</v>
+        <v>8.56034</v>
       </c>
       <c r="R88">
-        <v>7.96156</v>
+        <v>1.35118</v>
       </c>
       <c r="S88">
-        <v>4.69581</v>
+        <v>4.42052</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>ENSMUSG00000025969</t>
+          <t>ENSMUSG00000026235</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Nrp2</t>
+          <t>Epha4</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>chr1:62703284-62818695</t>
+          <t>chr1:77367184-77515088</t>
         </is>
       </c>
       <c r="D89">
-        <v>21.9423</v>
+        <v>13.4318</v>
       </c>
       <c r="E89">
-        <v>17.4709</v>
+        <v>10.8243</v>
       </c>
       <c r="F89">
-        <v>53.5053</v>
+        <v>16.1199</v>
       </c>
       <c r="G89">
-        <v>50.1007</v>
+        <v>23.6185</v>
       </c>
       <c r="H89">
-        <v>66.03570000000001</v>
+        <v>24.6841</v>
       </c>
       <c r="I89">
-        <v>36.0325</v>
+        <v>27.4426</v>
       </c>
       <c r="J89">
-        <v>38.1851</v>
+        <v>25.5778</v>
       </c>
       <c r="K89">
-        <v>40.6007</v>
+        <v>25.9032</v>
       </c>
       <c r="L89">
-        <v>13.8995</v>
+        <v>6.18705</v>
       </c>
       <c r="M89">
-        <v>10.9837</v>
+        <v>7.35583</v>
       </c>
       <c r="N89">
-        <v>106.283</v>
+        <v>62.2604</v>
       </c>
       <c r="O89">
-        <v>120.79</v>
+        <v>65.9314</v>
       </c>
       <c r="P89">
-        <v>73.80410000000001</v>
+        <v>36.7337</v>
       </c>
       <c r="Q89">
-        <v>83.6297</v>
+        <v>63.7428</v>
       </c>
       <c r="R89">
-        <v>65.6861</v>
+        <v>29.0142</v>
       </c>
       <c r="S89">
-        <v>69.7114</v>
+        <v>39.5568</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>ENSMUSG00000047759</t>
+          <t>ENSMUSG00000033207</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Hs3st3a1</t>
+          <t>Mamdc2</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>chr11:64435331-64522841</t>
+          <t>chr19:23302608-23448322</t>
         </is>
       </c>
       <c r="D90">
-        <v>0.864351</v>
+        <v>0.101998</v>
       </c>
       <c r="E90">
-        <v>0.502231</v>
+        <v>0.0740821</v>
       </c>
       <c r="F90">
-        <v>0.195037</v>
+        <v>0.230153</v>
       </c>
       <c r="G90">
-        <v>0.298503</v>
+        <v>0.184511</v>
       </c>
       <c r="H90">
-        <v>0.161284</v>
+        <v>0.370072</v>
       </c>
       <c r="I90">
-        <v>0.463398</v>
+        <v>0.119619</v>
       </c>
       <c r="J90">
-        <v>0.564409</v>
+        <v>0.0111005</v>
       </c>
       <c r="K90">
-        <v>0.143326</v>
+        <v>0.0338263</v>
       </c>
       <c r="L90">
-        <v>2.1791</v>
+        <v>0.29295</v>
       </c>
       <c r="M90">
-        <v>2.19242</v>
+        <v>0.421167</v>
       </c>
       <c r="N90">
-        <v>0.0927896</v>
+        <v>5.55061</v>
       </c>
       <c r="O90">
-        <v>0.107516</v>
+        <v>4.24121</v>
       </c>
       <c r="P90">
-        <v>0.108216</v>
+        <v>0.882288</v>
       </c>
       <c r="Q90">
-        <v>0.35706</v>
+        <v>1.63043</v>
       </c>
       <c r="R90">
-        <v>4.26494</v>
+        <v>0.328943</v>
       </c>
       <c r="S90">
-        <v>0.70586</v>
+        <v>0.711477</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>ENSMUSG00000041324</t>
+          <t>ENSMUSG00000028332</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Inhba</t>
+          <t>Hemgn</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>chr13:16011850-16031621</t>
+          <t>chr4:46393988-46413506</t>
         </is>
       </c>
       <c r="D91">
-        <v>0</v>
+        <v>0.183342</v>
       </c>
       <c r="E91">
-        <v>0</v>
+        <v>0.942017</v>
       </c>
       <c r="F91">
         <v>0</v>
       </c>
       <c r="G91">
-        <v>0.0350489</v>
+        <v>0.361839</v>
       </c>
       <c r="H91">
-        <v>0.0231785</v>
+        <v>0.0151984</v>
       </c>
       <c r="I91">
-        <v>0.008926659999999999</v>
+        <v>0.0245623</v>
       </c>
       <c r="J91">
-        <v>0.231528</v>
+        <v>0.0319196</v>
       </c>
       <c r="K91">
-        <v>0.185538</v>
+        <v>0</v>
       </c>
       <c r="L91">
-        <v>0</v>
+        <v>3.1055</v>
       </c>
       <c r="M91">
-        <v>0</v>
+        <v>2.91099</v>
       </c>
       <c r="N91">
-        <v>0.00439988</v>
+        <v>4.30047</v>
       </c>
       <c r="O91">
-        <v>0.0189361</v>
+        <v>7.56116</v>
       </c>
       <c r="P91">
-        <v>0.64264</v>
+        <v>2.28732</v>
       </c>
       <c r="Q91">
-        <v>0.239246</v>
+        <v>6.18499</v>
       </c>
       <c r="R91">
-        <v>6.22488</v>
+        <v>0.0946063</v>
       </c>
       <c r="S91">
-        <v>4.89807</v>
+        <v>0.6738189999999999</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>ENSMUSG00000008540</t>
+          <t>ENSMUSG00000042607</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Mgst1</t>
+          <t>Asb4</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>chr6:138140315-138156755</t>
+          <t>chr6:5383385-5433022</t>
         </is>
       </c>
       <c r="D92">
-        <v>80.41079999999999</v>
+        <v>23.7054</v>
       </c>
       <c r="E92">
-        <v>60.455</v>
+        <v>21.9741</v>
       </c>
       <c r="F92">
-        <v>59.8294</v>
+        <v>17.4596</v>
       </c>
       <c r="G92">
-        <v>55.0377</v>
+        <v>29.2858</v>
       </c>
       <c r="H92">
-        <v>36.0856</v>
+        <v>31.3117</v>
       </c>
       <c r="I92">
-        <v>34.2537</v>
+        <v>9.49578</v>
       </c>
       <c r="J92">
-        <v>33.0222</v>
+        <v>1.06369</v>
       </c>
       <c r="K92">
-        <v>26.0679</v>
+        <v>1.87198</v>
       </c>
       <c r="L92">
-        <v>25.866</v>
+        <v>155.561</v>
       </c>
       <c r="M92">
-        <v>11.8843</v>
+        <v>160.526</v>
       </c>
       <c r="N92">
-        <v>10.994</v>
+        <v>300.696</v>
       </c>
       <c r="O92">
-        <v>9.24213</v>
+        <v>231.324</v>
       </c>
       <c r="P92">
-        <v>28.7178</v>
+        <v>101.947</v>
       </c>
       <c r="Q92">
-        <v>14.4426</v>
+        <v>142.754</v>
       </c>
       <c r="R92">
-        <v>57.3233</v>
+        <v>29.7138</v>
       </c>
       <c r="S92">
-        <v>42.6296</v>
+        <v>56.6617</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>ENSMUSG00000028883</t>
+          <t>ENSMUSG00000027525</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Sema3a</t>
+          <t>Phactr3</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>chr5:13396783-13602565</t>
+          <t>chr2:178118974-178338492</t>
         </is>
       </c>
       <c r="D93">
-        <v>22.8266</v>
+        <v>0.832849</v>
       </c>
       <c r="E93">
-        <v>25.2579</v>
+        <v>0.6089909999999999</v>
       </c>
       <c r="F93">
-        <v>15.0795</v>
+        <v>1.13071</v>
       </c>
       <c r="G93">
-        <v>16.5735</v>
+        <v>0.880657</v>
       </c>
       <c r="H93">
-        <v>21.166</v>
+        <v>0.715636</v>
       </c>
       <c r="I93">
-        <v>25.8821</v>
+        <v>0.237469</v>
       </c>
       <c r="J93">
-        <v>26.0738</v>
+        <v>0.070105</v>
       </c>
       <c r="K93">
-        <v>32.3975</v>
+        <v>0.0427126</v>
       </c>
       <c r="L93">
-        <v>39.0051</v>
+        <v>1.26452</v>
       </c>
       <c r="M93">
-        <v>60.2372</v>
+        <v>1.11338</v>
       </c>
       <c r="N93">
-        <v>4.44438</v>
+        <v>8.46542</v>
       </c>
       <c r="O93">
-        <v>3.54221</v>
+        <v>4.51866</v>
       </c>
       <c r="P93">
-        <v>4.74886</v>
+        <v>1.83006</v>
       </c>
       <c r="Q93">
-        <v>5.37871</v>
+        <v>2.27601</v>
       </c>
       <c r="R93">
-        <v>6.73422</v>
+        <v>0.493729</v>
       </c>
       <c r="S93">
-        <v>5.71514</v>
+        <v>0.670024</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>ENSMUSG00000028073</t>
+          <t>ENSMUSG00000019880</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Pear1</t>
+          <t>Rspo3</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>chr3:87749096-87824306</t>
+          <t>chr10:29452415-29535867</t>
         </is>
       </c>
       <c r="D94">
-        <v>0.739825</v>
+        <v>0.165544</v>
       </c>
       <c r="E94">
-        <v>0.221664</v>
+        <v>0.128252</v>
       </c>
       <c r="F94">
-        <v>1.32553</v>
+        <v>0.580379</v>
       </c>
       <c r="G94">
-        <v>1.36521</v>
+        <v>0.490032</v>
       </c>
       <c r="H94">
-        <v>2.66924</v>
+        <v>0.9953379999999999</v>
       </c>
       <c r="I94">
-        <v>0.6881660000000001</v>
+        <v>0.591731</v>
       </c>
       <c r="J94">
-        <v>0.165253</v>
+        <v>1.34522</v>
       </c>
       <c r="K94">
-        <v>0.306903</v>
+        <v>1.11631</v>
       </c>
       <c r="L94">
-        <v>2.85246</v>
+        <v>0.739607</v>
       </c>
       <c r="M94">
-        <v>1.83535</v>
+        <v>0.423172</v>
       </c>
       <c r="N94">
-        <v>18.0367</v>
+        <v>4.56588</v>
       </c>
       <c r="O94">
-        <v>16.4444</v>
+        <v>4.90503</v>
       </c>
       <c r="P94">
-        <v>7.00539</v>
+        <v>5.65539</v>
       </c>
       <c r="Q94">
-        <v>8.18876</v>
+        <v>6.77911</v>
       </c>
       <c r="R94">
-        <v>5.79791</v>
+        <v>0.344057</v>
       </c>
       <c r="S94">
-        <v>6.96876</v>
+        <v>3.361</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>ENSMUSG00000029093</t>
+          <t>ENSMUSG00000062393</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Sorcs2</t>
+          <t>Dgkk</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>chr5:36017179-36398139</t>
+          <t>chrX:6779305-6948363</t>
         </is>
       </c>
       <c r="D95">
-        <v>5.9208</v>
+        <v>6.80972</v>
       </c>
       <c r="E95">
-        <v>3.90265</v>
+        <v>7.94882</v>
       </c>
       <c r="F95">
-        <v>13.8446</v>
+        <v>2.40125</v>
       </c>
       <c r="G95">
-        <v>12.0842</v>
+        <v>2.7252</v>
       </c>
       <c r="H95">
-        <v>18.7642</v>
+        <v>1.03097</v>
       </c>
       <c r="I95">
-        <v>20.2962</v>
+        <v>0.967936</v>
       </c>
       <c r="J95">
-        <v>24.2968</v>
+        <v>0.179106</v>
       </c>
       <c r="K95">
-        <v>23.7957</v>
+        <v>0.256851</v>
       </c>
       <c r="L95">
-        <v>2.57754</v>
+        <v>0.5314950000000001</v>
       </c>
       <c r="M95">
-        <v>1.75175</v>
+        <v>0.5061870000000001</v>
       </c>
       <c r="N95">
-        <v>1.14714</v>
+        <v>3.83515</v>
       </c>
       <c r="O95">
-        <v>0.907523</v>
+        <v>6.24272</v>
       </c>
       <c r="P95">
-        <v>4.31602</v>
+        <v>2.7419</v>
       </c>
       <c r="Q95">
-        <v>2.22601</v>
+        <v>4.66682</v>
       </c>
       <c r="R95">
-        <v>12.8701</v>
+        <v>0.721266</v>
       </c>
       <c r="S95">
-        <v>5.33912</v>
+        <v>1.54343</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>ENSMUSG00000036111</t>
+          <t>ENSMUSG00000027994</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Lmo1</t>
+          <t>Mcub</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>chr7:109138571-109175207</t>
+          <t>chr3:129914959-129970206</t>
         </is>
       </c>
       <c r="D96">
-        <v>1.33247</v>
+        <v>0.0846922</v>
       </c>
       <c r="E96">
-        <v>0.992852</v>
+        <v>0.0492106</v>
       </c>
       <c r="F96">
-        <v>3.43291</v>
+        <v>0.921367</v>
       </c>
       <c r="G96">
-        <v>1.80718</v>
+        <v>1.95699</v>
       </c>
       <c r="H96">
-        <v>5.01889</v>
+        <v>6.32474</v>
       </c>
       <c r="I96">
-        <v>1.16739</v>
+        <v>0.477059</v>
       </c>
       <c r="J96">
-        <v>4.60453</v>
+        <v>0.885473</v>
       </c>
       <c r="K96">
-        <v>0.9746629999999999</v>
+        <v>0.724548</v>
       </c>
       <c r="L96">
-        <v>20.1327</v>
+        <v>0.796894</v>
       </c>
       <c r="M96">
-        <v>9.863350000000001</v>
+        <v>0.636585</v>
       </c>
       <c r="N96">
-        <v>36.7813</v>
+        <v>21.0975</v>
       </c>
       <c r="O96">
-        <v>24.422</v>
+        <v>16.3992</v>
       </c>
       <c r="P96">
-        <v>29.1009</v>
+        <v>17.3807</v>
       </c>
       <c r="Q96">
-        <v>25.8251</v>
+        <v>16.6045</v>
       </c>
       <c r="R96">
-        <v>5.98535</v>
+        <v>11.6386</v>
       </c>
       <c r="S96">
-        <v>8.058680000000001</v>
+        <v>12.7892</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>ENSMUSG00000031737</t>
+          <t>ENSMUSG00000021466</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Irx5</t>
+          <t>Ptch1</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>chr8:92357624-92376286</t>
+          <t>chr13:63508327-63573598</t>
         </is>
       </c>
       <c r="D97">
-        <v>2.11924</v>
+        <v>6.69799</v>
       </c>
       <c r="E97">
-        <v>1.89754</v>
+        <v>8.038729999999999</v>
       </c>
       <c r="F97">
-        <v>1.05474</v>
+        <v>26.2511</v>
       </c>
       <c r="G97">
-        <v>0.845574</v>
+        <v>35.9676</v>
       </c>
       <c r="H97">
-        <v>0.907569</v>
+        <v>12.6294</v>
       </c>
       <c r="I97">
-        <v>0.53549</v>
+        <v>44.4725</v>
       </c>
       <c r="J97">
-        <v>2.10221</v>
+        <v>5.83416</v>
       </c>
       <c r="K97">
-        <v>1.58999</v>
+        <v>8.14517</v>
       </c>
       <c r="L97">
-        <v>6.43955</v>
+        <v>3.70766</v>
       </c>
       <c r="M97">
-        <v>7.45963</v>
+        <v>5.65385</v>
       </c>
       <c r="N97">
-        <v>0.10328</v>
+        <v>16.5771</v>
       </c>
       <c r="O97">
-        <v>0</v>
+        <v>22.9063</v>
       </c>
       <c r="P97">
-        <v>0.0316327</v>
+        <v>8.793990000000001</v>
       </c>
       <c r="Q97">
-        <v>0</v>
+        <v>22.1799</v>
       </c>
       <c r="R97">
-        <v>0.806702</v>
+        <v>5.30486</v>
       </c>
       <c r="S97">
-        <v>0.330998</v>
+        <v>8.706160000000001</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>ENSMUSG00000032841</t>
+          <t>ENSMUSG00000028640</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Prr5l</t>
+          <t>Tfap2c</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>chr2:101714284-101883014</t>
+          <t>chr2:172549592-172558622</t>
         </is>
       </c>
       <c r="D98">
-        <v>8.22864</v>
+        <v>10.588</v>
       </c>
       <c r="E98">
-        <v>6.48109</v>
+        <v>10.4205</v>
       </c>
       <c r="F98">
-        <v>9.45059</v>
+        <v>13.6024</v>
       </c>
       <c r="G98">
-        <v>9.682539999999999</v>
+        <v>13.4909</v>
       </c>
       <c r="H98">
-        <v>19.364</v>
+        <v>9.80434</v>
       </c>
       <c r="I98">
-        <v>11.5822</v>
+        <v>10.4391</v>
       </c>
       <c r="J98">
-        <v>16.224</v>
+        <v>11.1102</v>
       </c>
       <c r="K98">
-        <v>14.3045</v>
+        <v>11.7364</v>
       </c>
       <c r="L98">
-        <v>6.08407</v>
+        <v>19.3426</v>
       </c>
       <c r="M98">
-        <v>6.43069</v>
+        <v>24.334</v>
       </c>
       <c r="N98">
-        <v>7.23445</v>
+        <v>25.8436</v>
       </c>
       <c r="O98">
-        <v>6.36447</v>
+        <v>24.6773</v>
       </c>
       <c r="P98">
-        <v>24.3721</v>
+        <v>4.80538</v>
       </c>
       <c r="Q98">
-        <v>14.9396</v>
+        <v>9.77638</v>
       </c>
       <c r="R98">
-        <v>69.002</v>
+        <v>1.423</v>
       </c>
       <c r="S98">
-        <v>42.7392</v>
+        <v>3.78275</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>ENSMUSG00000046402</t>
+          <t>ENSMUSG00000006362</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Rbp1</t>
+          <t>Cbfa2t3</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>chr9:98422960-98446575</t>
+          <t>chr8:122625140-122699109</t>
         </is>
       </c>
       <c r="D99">
-        <v>26.9922</v>
+        <v>0.196597</v>
       </c>
       <c r="E99">
-        <v>20.6072</v>
+        <v>0.25545</v>
       </c>
       <c r="F99">
-        <v>14.1947</v>
+        <v>0.775929</v>
       </c>
       <c r="G99">
-        <v>10.3241</v>
+        <v>0.670631</v>
       </c>
       <c r="H99">
-        <v>11.0461</v>
+        <v>2.5892</v>
       </c>
       <c r="I99">
-        <v>8.883139999999999</v>
+        <v>0.619198</v>
       </c>
       <c r="J99">
-        <v>6.63664</v>
+        <v>0.121539</v>
       </c>
       <c r="K99">
-        <v>7.81275</v>
+        <v>0.251164</v>
       </c>
       <c r="L99">
-        <v>6.65075</v>
+        <v>1.87421</v>
       </c>
       <c r="M99">
-        <v>3.69184</v>
+        <v>1.98405</v>
       </c>
       <c r="N99">
-        <v>4.23001</v>
+        <v>10.3626</v>
       </c>
       <c r="O99">
-        <v>3.74137</v>
+        <v>13.2152</v>
       </c>
       <c r="P99">
-        <v>9.89232</v>
+        <v>6.33664</v>
       </c>
       <c r="Q99">
-        <v>5.37256</v>
+        <v>10.0988</v>
       </c>
       <c r="R99">
-        <v>38.0633</v>
+        <v>3.04722</v>
       </c>
       <c r="S99">
-        <v>11.0738</v>
+        <v>5.97432</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>ENSMUSG00000029449</t>
+          <t>ENSMUSG00000025927</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Rhof</t>
+          <t>Tfap2b</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>chr5:123103043-123132692</t>
+          <t>chr1:19208913-19238576</t>
         </is>
       </c>
       <c r="D100">
-        <v>0.154197</v>
+        <v>3.87139</v>
       </c>
       <c r="E100">
-        <v>0.268789</v>
+        <v>5.34811</v>
       </c>
       <c r="F100">
-        <v>2.11927</v>
+        <v>12.8015</v>
       </c>
       <c r="G100">
-        <v>2.02738</v>
+        <v>18.0286</v>
       </c>
       <c r="H100">
-        <v>1.67644</v>
+        <v>34.4678</v>
       </c>
       <c r="I100">
-        <v>3.45835</v>
+        <v>25.9787</v>
       </c>
       <c r="J100">
-        <v>0.100689</v>
+        <v>78.06959999999999</v>
       </c>
       <c r="K100">
-        <v>0.204551</v>
+        <v>85.508</v>
       </c>
       <c r="L100">
-        <v>0.377263</v>
+        <v>0.0772258</v>
       </c>
       <c r="M100">
-        <v>0.250136</v>
+        <v>0.0270025</v>
       </c>
       <c r="N100">
-        <v>1.91</v>
+        <v>23.0888</v>
       </c>
       <c r="O100">
-        <v>3.42508</v>
+        <v>47.6558</v>
       </c>
       <c r="P100">
-        <v>4.22426</v>
+        <v>33.0985</v>
       </c>
       <c r="Q100">
-        <v>5.4004</v>
+        <v>50.4932</v>
       </c>
       <c r="R100">
-        <v>0.364678</v>
+        <v>67.34350000000001</v>
       </c>
       <c r="S100">
-        <v>0.91819</v>
+        <v>53.3115</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>ENSMUSG00000056427</t>
+          <t>ENSMUSG00000025969</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Slit3</t>
+          <t>Nrp2</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>chr11:35121223-35708507</t>
+          <t>chr1:62703284-62818695</t>
         </is>
       </c>
       <c r="D101">
-        <v>5.63322</v>
+        <v>21.9423</v>
       </c>
       <c r="E101">
-        <v>6.30041</v>
+        <v>17.4709</v>
       </c>
       <c r="F101">
-        <v>6.43906</v>
+        <v>53.5053</v>
       </c>
       <c r="G101">
-        <v>6.75787</v>
+        <v>50.1007</v>
       </c>
       <c r="H101">
-        <v>10.2345</v>
+        <v>66.03570000000001</v>
       </c>
       <c r="I101">
-        <v>3.15321</v>
+        <v>36.0325</v>
       </c>
       <c r="J101">
-        <v>0.970987</v>
+        <v>38.1851</v>
       </c>
       <c r="K101">
-        <v>0.99349</v>
+        <v>40.6007</v>
       </c>
       <c r="L101">
-        <v>3.17282</v>
+        <v>13.8995</v>
       </c>
       <c r="M101">
-        <v>3.14047</v>
+        <v>10.9837</v>
       </c>
       <c r="N101">
-        <v>30.901</v>
+        <v>106.283</v>
       </c>
       <c r="O101">
-        <v>29.6023</v>
+        <v>120.79</v>
       </c>
       <c r="P101">
-        <v>24.0081</v>
+        <v>73.80410000000001</v>
       </c>
       <c r="Q101">
-        <v>23.5455</v>
+        <v>83.6297</v>
       </c>
       <c r="R101">
-        <v>18.2722</v>
+        <v>65.6861</v>
       </c>
       <c r="S101">
-        <v>18.4255</v>
+        <v>69.7114</v>
       </c>
     </row>
   </sheetData>
